--- a/BRCA Data Analysis.xlsx
+++ b/BRCA Data Analysis.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\PORTFOLIO PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5900D81F-969A-4AE7-8FC8-10C924DC6EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC120BD4-D4A7-4029-B624-6B2B25A79D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis" sheetId="2" r:id="rId1"/>
     <sheet name="Dashboard" sheetId="5" r:id="rId2"/>
     <sheet name=" BRCA Cleaned Data" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
+    <sheet name="Raw BRCA Data" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">' BRCA Cleaned Data'!$L$1:$L$335</definedName>
@@ -1826,10 +1826,18 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Number of Patient in each Age Bracket </a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2296,6 +2304,848 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[BRCA Data Analysis.xlsx]Analysis!PivotTable20</c:name>
+    <c:fmtId val="4"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>HER</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 2 Distribution</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37717543927698693"/>
+          <c:y val="0.1589672535568247"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analysis!$B$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Analysis!$A$49:$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Negative</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Positive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Analysis!$B$49:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2F46-4FF2-B0E2-6E5F61442886}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[BRCA Data Analysis.xlsx]Analysis!PivotTable16</c:name>
+    <c:fmtId val="26"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Number of Patient in each Age Bracket </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15262110236220472"/>
+          <c:y val="0.16115835520559926"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="brightRoom" dir="t"/>
+          </a:scene3d>
+          <a:sp3d prstMaterial="flat">
+            <a:bevelT w="50800" h="101600" prst="angle"/>
+            <a:contourClr>
+              <a:srgbClr val="000000"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="brightRoom" dir="t"/>
+          </a:scene3d>
+          <a:sp3d prstMaterial="flat">
+            <a:bevelT w="50800" h="101600" prst="angle"/>
+            <a:contourClr>
+              <a:srgbClr val="000000"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="brightRoom" dir="t"/>
+          </a:scene3d>
+          <a:sp3d prstMaterial="flat">
+            <a:bevelT w="50800" h="101600" prst="angle"/>
+            <a:contourClr>
+              <a:srgbClr val="000000"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="brightRoom" dir="t"/>
+          </a:scene3d>
+          <a:sp3d prstMaterial="flat">
+            <a:bevelT w="50800" h="101600" prst="angle"/>
+            <a:contourClr>
+              <a:srgbClr val="000000"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analysis!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-30AB-45A5-BD83-1D2BEAA57961}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-30AB-45A5-BD83-1D2BEAA57961}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-30AB-45A5-BD83-1D2BEAA57961}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Analysis!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Middle Age</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Old</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Young Adult</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Analysis!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-30AB-45A5-BD83-1D2BEAA57961}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2962,7 +3812,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3535,7 +4385,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4852,7 +5702,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5823,7 +6673,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6944,7 +7794,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7005,6 +7855,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16129369965910503"/>
+          <c:y val="0.13271314058715633"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7693,7 +8551,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8703,6 +9561,35 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Number of patients based on gender</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8858,7 +9745,17 @@
       </c:spPr>
     </c:backWall>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13492348201583096"/>
+          <c:y val="0.37152782940759022"/>
+          <c:w val="0.67440905330953482"/>
+          <c:h val="0.51943090804636549"/>
+        </c:manualLayout>
+      </c:layout>
       <c:pie3DChart>
         <c:varyColors val="1"/>
         <c:ser>
@@ -9127,11 +10024,54 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[BRCA Data Analysis.xlsx]Analysis!PivotTable18</c:name>
-    <c:fmtId val="1"/>
+    <c:name>[BRCA Data Analysis.xlsx]Analysis!PivotTable21</c:name>
+    <c:fmtId val="10"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ZW" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Surgical Procedure of Choice in Relation to Tumor Stage</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9144,13 +10084,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -9161,424 +10115,6 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="bestFit"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Analysis!$B$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-E3FE-4B01-AFBA-333E48724A6B}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-E3FE-4B01-AFBA-333E48724A6B}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-E3FE-4B01-AFBA-333E48724A6B}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="bestFit"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Analysis!$A$30:$A$33</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>I</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>II</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>III</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Analysis!$B$30:$B$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>81</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-217E-4818-9A6E-108133963BE7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="bestFit"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.61163305489024711"/>
-          <c:y val="0.42119988808505543"/>
-          <c:w val="0.13028413976308031"/>
-          <c:h val="0.44098058808638763"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[BRCA Data Analysis.xlsx]Analysis!PivotTable21</c:name>
-    <c:fmtId val="10"/>
-  </c:pivotSource>
-  <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -10648,7 +11184,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10666,6 +11202,93 @@
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ZW" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Survival Rate for each Tumor Stage</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -11313,7 +11936,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11331,6 +11954,123 @@
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ZW" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Survival Rate based on Age Category</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-ZW"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -11919,7 +12659,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11937,6 +12677,93 @@
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ZW" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Survival Rate based on Age Category</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -12407,7 +13234,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -12425,6 +13252,93 @@
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ZW" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Survival Rate Based on Gender</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -12995,7 +13909,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -13009,8 +13923,8 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[BRCA Data Analysis.xlsx]Analysis!PivotTable16</c:name>
-    <c:fmtId val="26"/>
+    <c:name>[BRCA Data Analysis.xlsx]Analysis!PivotTable18</c:name>
+    <c:fmtId val="10"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
@@ -13020,7 +13934,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -13033,24 +13947,16 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1000">
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Number of Patient in each Age Bracket </a:t>
+              <a:t>Number of patients based on tumor grade</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.15262110236220472"/>
-          <c:y val="0.16115835520559926"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13064,7 +13970,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -13084,63 +13990,16 @@
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="4"/>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="5"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
-          <a:scene3d>
-            <a:camera prst="orthographicFront"/>
-            <a:lightRig rig="brightRoom" dir="t"/>
-          </a:scene3d>
-          <a:sp3d prstMaterial="flat">
-            <a:bevelT w="50800" h="101600" prst="angle"/>
-            <a:contourClr>
-              <a:srgbClr val="000000"/>
-            </a:contourClr>
-          </a:sp3d>
         </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
@@ -13161,9 +14020,12 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -13184,83 +14046,17 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="6"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:scene3d>
-            <a:camera prst="orthographicFront"/>
-            <a:lightRig rig="brightRoom" dir="t"/>
-          </a:scene3d>
-          <a:sp3d prstMaterial="flat">
-            <a:bevelT w="50800" h="101600" prst="angle"/>
-            <a:contourClr>
-              <a:srgbClr val="000000"/>
-            </a:contourClr>
-          </a:sp3d>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="7"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:scene3d>
-            <a:camera prst="orthographicFront"/>
-            <a:lightRig rig="brightRoom" dir="t"/>
-          </a:scene3d>
-          <a:sp3d prstMaterial="flat">
-            <a:bevelT w="50800" h="101600" prst="angle"/>
-            <a:contourClr>
-              <a:srgbClr val="000000"/>
-            </a:contourClr>
-          </a:sp3d>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="8"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:scene3d>
-            <a:camera prst="orthographicFront"/>
-            <a:lightRig rig="brightRoom" dir="t"/>
-          </a:scene3d>
-          <a:sp3d prstMaterial="flat">
-            <a:bevelT w="50800" h="101600" prst="angle"/>
-            <a:contourClr>
-              <a:srgbClr val="000000"/>
-            </a:contourClr>
-          </a:sp3d>
-        </c:spPr>
-      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
-      <c:doughnutChart>
+      <c:pieChart>
         <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analysis!$B$3</c:f>
+              <c:f>Analysis!$B$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13276,26 +14072,13 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-30AB-45A5-BD83-1D2BEAA57961}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -13304,26 +14087,13 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-30AB-45A5-BD83-1D2BEAA57961}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -13332,65 +14102,52 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-30AB-45A5-BD83-1D2BEAA57961}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Analysis!$A$4:$A$7</c:f>
+              <c:f>Analysis!$A$30:$A$33</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Middle Age</c:v>
+                  <c:v>I</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Old</c:v>
+                  <c:v>II</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Young Adult</c:v>
+                  <c:v>III</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Analysis!$B$4:$B$7</c:f>
+              <c:f>Analysis!$B$30:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>169</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-30AB-45A5-BD83-1D2BEAA57961}"/>
+              <c16:uniqueId val="{00000000-D345-4B45-97E4-0C92591320FF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13404,8 +14161,7 @@
           <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
-        <c:holeSize val="50"/>
-      </c:doughnutChart>
+      </c:pieChart>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -13431,7 +14187,10 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -13458,7 +14217,365 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[BRCA Data Analysis.xlsx]Analysis!PivotTable19</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ZW"/>
+              <a:t>Grade</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-ZW" baseline="0"/>
+              <a:t> Destribution</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-ZW"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analysis!$B$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Analysis!$A$42:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Infiltrating Ductal Carcinoma</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Infiltrating Lobular Carcinoma</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mucinous Carcinoma</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Analysis!$B$42:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0084-4713-AE77-9B8EA4FAF97C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -13778,6 +14895,86 @@
 </file>
 
 <file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -14641,7 +15838,7 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -14652,7 +15849,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -14664,6 +15861,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -14687,25 +15895,29 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <cs:styleClr val="auto"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <cs:styleClr val="auto"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -14713,65 +15925,50 @@
       </a:solidFill>
       <a:ln>
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="10000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-      <a:scene3d>
-        <a:camera prst="orthographicFront"/>
-        <a:lightRig rig="threePt" dir="t"/>
-      </a:scene3d>
-      <a:sp3d>
-        <a:bevelT w="127000" h="127000"/>
-        <a:bevelB w="127000" h="127000"/>
-      </a:sp3d>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -14781,7 +15978,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -14793,26 +15990,25 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -14820,7 +16016,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -15025,7 +16221,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -15033,7 +16229,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -15077,7 +16273,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -15093,7 +16289,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -15678,6 +16874,1043 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="10000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d>
+        <a:bevelT w="127000" h="127000"/>
+        <a:bevelB w="127000" h="127000"/>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="brightRoom" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="flat">
+        <a:bevelT w="50800" h="101600" prst="angle"/>
+        <a:contourClr>
+          <a:srgbClr val="000000"/>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" i="0" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15844,1010 +18077,6 @@
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="348">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -17686,6 +18915,1010 @@
 </file>
 
 <file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="348">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18714,7 +20947,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -18771,7 +21004,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -18822,13 +21055,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -18839,19 +21065,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -18889,7 +21108,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -18932,23 +21151,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -19053,8 +21271,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -19186,20 +21404,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -21245,7 +23462,7 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -21302,7 +23519,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -21353,6 +23570,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -21363,12 +23587,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -21402,521 +23633,6 @@
     </cs:spPr>
   </cs:dataPointMarker>
   <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:scene3d>
-        <a:camera prst="orthographicFront"/>
-        <a:lightRig rig="brightRoom" dir="t"/>
-      </a:scene3d>
-      <a:sp3d prstMaterial="flat">
-        <a:bevelT w="50800" h="101600" prst="angle"/>
-        <a:contourClr>
-          <a:srgbClr val="000000"/>
-        </a:contourClr>
-      </a:sp3d>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -22181,7 +23897,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" i="0" kern="1200" cap="all" spc="50" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -22197,7 +23913,526 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -22274,8 +24509,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -22305,15 +24540,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
+      <xdr:colOff>42862</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22333,42 +24568,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88ED99A1-0E6F-CBEE-4EDC-BDB414DB30CD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -22404,7 +24603,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -22412,14 +24611,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1804987</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>91</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -22440,7 +24639,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -22476,7 +24675,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -22512,7 +24711,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -22520,16 +24719,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>128</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22548,7 +24747,115 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7872C8E-089F-D640-BDC1-EB342D6DFF9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9BDD321-44D8-F84B-AB39-3CCAA5A15AE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29BD58FF-E85C-B834-CB52-05E49AC56D60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -41109,7 +43416,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000004000000}" name="PivotTable20" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000004000000}" name="PivotTable20" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A48:B51" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField dataField="1" showAll="0"/>
@@ -41499,6 +43806,17 @@
   <dataFields count="1">
     <dataField name="Count of Patient_ID" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="4" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -41512,7 +43830,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000003000000}" name="PivotTable19" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000003000000}" name="PivotTable19" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A41:B45" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField dataField="1" showAll="0">
@@ -42239,6 +44557,17 @@
   <dataFields count="1">
     <dataField name="Count of Patient_ID" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -42252,7 +44581,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000002000000}" name="PivotTable18" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000002000000}" name="PivotTable18" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A29:B33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField dataField="1" showAll="0">
@@ -42974,7 +45303,7 @@
   <dataFields count="1">
     <dataField name="Count of Patient_ID" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="8">
+  <chartFormats count="9">
     <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -43061,6 +45390,15 @@
           </reference>
           <reference field="4" count="1" selected="0">
             <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -46794,8 +49132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:F151"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="B148" sqref="B148"/>
+    <sheetView topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="I108" sqref="I108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47515,7 +49853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="H1:U183"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="H34" workbookViewId="0">
       <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>

--- a/BRCA Data Analysis.xlsx
+++ b/BRCA Data Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\PORTFOLIO PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC120BD4-D4A7-4029-B624-6B2B25A79D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F30AB8DD-0093-4AD6-8980-87BC5B956660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis" sheetId="2" r:id="rId1"/>
@@ -20,18 +20,43 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">' BRCA Cleaned Data'!$L$1:$L$335</definedName>
+    <definedName name="Slicer_Age_Bracket">#N/A</definedName>
+    <definedName name="Slicer_Age_Bracket1">#N/A</definedName>
+    <definedName name="Slicer_Age_Bracket2">#N/A</definedName>
+    <definedName name="Slicer_Surgery_type">#N/A</definedName>
+    <definedName name="Slicer_Surgery_type1">#N/A</definedName>
+    <definedName name="Slicer_Tumour_Stage">#N/A</definedName>
+    <definedName name="Slicer_Tumour_Stage1">#N/A</definedName>
+    <definedName name="Slicer_Tumour_Stage2">#N/A</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
     <pivotCache cacheId="1" r:id="rId6"/>
-    <pivotCache cacheId="2" r:id="rId7"/>
+    <pivotCache cacheId="6" r:id="rId7"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId8"/>
+        <x14:slicerCache r:id="rId9"/>
+        <x14:slicerCache r:id="rId10"/>
+        <x14:slicerCache r:id="rId11"/>
+        <x14:slicerCache r:id="rId12"/>
+        <x14:slicerCache r:id="rId13"/>
+        <x14:slicerCache r:id="rId14"/>
+        <x14:slicerCache r:id="rId15"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6111" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6108" uniqueCount="387">
   <si>
     <t>Patient_ID</t>
   </si>
@@ -1708,7 +1733,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1723,6 +1748,7 @@
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2175,13 +2201,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>169</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2346,7 +2372,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> 2 Distribution</a:t>
+              <a:t> 2 Status Distribution</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -3025,13 +3051,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>169</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4255,13 +4281,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>64</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>189</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5168,13 +5194,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5270,13 +5293,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>49</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5371,14 +5391,11 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>61</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5474,13 +5491,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6255,13 +6272,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>51</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>144</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6357,13 +6374,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6459,20 +6476,17 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-DAD5-4168-AC0B-67EC6AC1AD0A}"/>
+              <c16:uniqueId val="{00000002-72C1-4005-9F61-12352EF9F42E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7244,13 +7258,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>131</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>112</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7346,13 +7360,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>31</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7448,10 +7462,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9061,100 +9072,6 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Analysis!$D$123:$D$124</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>(blank)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:tint val="50000"/>
-                    <a:satMod val="300000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="35000">
-                  <a:schemeClr val="accent3">
-                    <a:tint val="37000"/>
-                    <a:satMod val="300000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:tint val="15000"/>
-                    <a:satMod val="350000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="16200000" scaled="1"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="38000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:sp3d contourW="9525">
-              <a:contourClr>
-                <a:schemeClr val="accent3">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:contourClr>
-            </a:sp3d>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Analysis!$A$125:$A$127</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>FEMALE</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MALE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Analysis!$D$125:$D$127</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BF17-4848-89B2-167C4DDCE21B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
@@ -9218,29 +9135,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Analysis!$A$125:$A$127</c:f>
+              <c:f>Analysis!$A$125:$A$126</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>FEMALE</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MALE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Analysis!$B$125:$B$127</c:f>
+              <c:f>Analysis!$B$125:$B$126</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9248,103 +9159,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BF17-4848-89B2-167C4DDCE21B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Analysis!$C$123:$C$124</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Dead</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:tint val="50000"/>
-                    <a:satMod val="300000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="35000">
-                  <a:schemeClr val="accent2">
-                    <a:tint val="37000"/>
-                    <a:satMod val="300000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:tint val="15000"/>
-                    <a:satMod val="350000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="16200000" scaled="1"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="38000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:sp3d contourW="9525">
-              <a:contourClr>
-                <a:schemeClr val="accent2">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:contourClr>
-            </a:sp3d>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Analysis!$A$125:$A$127</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>FEMALE</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MALE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Analysis!$C$125:$C$127</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BF17-4848-89B2-167C4DDCE21B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10749,13 +10563,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10814,13 +10625,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>49</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10878,14 +10686,11 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>61</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10944,13 +10749,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11570,13 +11375,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>51</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>144</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11635,13 +11440,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11700,20 +11505,17 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-A72C-40EE-81A7-770F82FF866A}"/>
+              <c16:uniqueId val="{00000001-464C-412B-93BD-A7AE550585ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12296,13 +12098,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>131</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>112</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12361,13 +12163,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>31</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12426,10 +12228,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12716,7 +12515,7 @@
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Survival Rate based on Age Category</a:t>
+              <a:t>Survival Rate based on Tumor Stage</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -13542,29 +13341,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Analysis!$A$125:$A$127</c:f>
+              <c:f>Analysis!$A$125:$A$126</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>FEMALE</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MALE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Analysis!$B$125:$B$127</c:f>
+              <c:f>Analysis!$B$125:$B$126</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13572,121 +13365,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5B23-4C40-9EF3-D08872B622E0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Analysis!$C$123:$C$124</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Dead</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Analysis!$A$125:$A$127</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>FEMALE</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MALE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Analysis!$C$125:$C$127</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5B23-4C40-9EF3-D08872B622E0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Analysis!$D$123:$D$124</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>(blank)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Analysis!$A$125:$A$127</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>FEMALE</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MALE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Analysis!$D$125:$D$127</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5B23-4C40-9EF3-D08872B622E0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14134,13 +13812,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>64</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>189</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14300,7 +13978,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-ZW"/>
-              <a:t>Grade</a:t>
+              <a:t>Tumor Grade</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-ZW" baseline="0"/>
@@ -24868,13 +24546,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>390526</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -24906,13 +24584,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -24944,13 +24622,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
@@ -24982,13 +24660,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -25020,13 +24698,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>390526</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
@@ -25058,13 +24736,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>28574</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -25096,13 +24774,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>380999</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
@@ -25134,13 +24812,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>19051</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -25168,6 +24846,630 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Tumour_Stage">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBC7D80A-8927-A5CA-E525-EB0BA094B42A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Tumour_Stage"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4895850" y="1133475"/>
+              <a:ext cx="1600200" cy="1123950"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-ZW" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Age_Bracket">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{070D62CF-7BA1-6F31-1A8D-7E97C6FAF899}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Age_Bracket"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13849350" y="1152525"/>
+              <a:ext cx="1600199" cy="1095375"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-ZW" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="Surgery_type">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CD085BC-622A-507F-8D2B-FDB702772E08}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Surgery_type"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4876799" y="3057526"/>
+              <a:ext cx="1609725" cy="1371600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-ZW" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="7" name="Age_Bracket 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEA4F1B8-6292-9D1E-A1B9-A83F6E41CEFB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Age_Bracket 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13849350" y="3067050"/>
+              <a:ext cx="1628775" cy="1152525"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-ZW" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="8" name="Age_Bracket 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64A3D0B1-9AAA-9DEA-764D-1CE043C61F57}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Age_Bracket 2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4933949" y="6048376"/>
+              <a:ext cx="1552575" cy="1143000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-ZW" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="9" name="Tumour_Stage 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F50B2306-BC6B-AA96-7AEC-A6F40FCE3FCB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Tumour_Stage 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13858875" y="6048375"/>
+              <a:ext cx="1828800" cy="1114425"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-ZW" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="11" name="Tumour_Stage 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6C050D1-5055-5BF5-4076-19A19F2A6AF0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Tumour_Stage 2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4943475" y="8763001"/>
+              <a:ext cx="1543050" cy="1200150"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-ZW" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="13" name="Surgery_type 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F98177A-6744-3470-AC10-10549738CB4A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Surgery_type 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4933949" y="9991726"/>
+              <a:ext cx="1552575" cy="1371600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-ZW" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -25928,7 +26230,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="1003620847"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -26349,7 +26651,11 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Tumour_Stage" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="3">
+        <s v="III"/>
+        <s v="II"/>
+        <s v="I"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Histology" numFmtId="0">
       <sharedItems/>
@@ -26385,7 +26691,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="1939457192"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -36422,13 +36728,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="334">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="334">
   <r>
     <s v="TCGA-D8-A1XD"/>
     <n v="36"/>
     <x v="0"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -36444,7 +36750,7 @@
     <n v="43"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Mucinous Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -36460,7 +36766,7 @@
     <n v="69"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -36476,7 +36782,7 @@
     <n v="56"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -36492,7 +36798,7 @@
     <n v="56"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -36508,7 +36814,7 @@
     <n v="84"/>
     <x v="2"/>
     <s v="MALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -36524,7 +36830,7 @@
     <n v="53"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -36540,7 +36846,7 @@
     <n v="50"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -36556,7 +36862,7 @@
     <n v="77"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -36572,7 +36878,7 @@
     <n v="40"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -36588,7 +36894,7 @@
     <n v="71"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -36604,7 +36910,7 @@
     <n v="72"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -36620,7 +36926,7 @@
     <n v="75"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -36636,7 +36942,7 @@
     <n v="52"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -36652,7 +36958,7 @@
     <n v="53"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Mucinous Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -36668,7 +36974,7 @@
     <n v="41"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -36684,7 +36990,7 @@
     <n v="37"/>
     <x v="0"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Mucinous Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -36700,7 +37006,7 @@
     <n v="59"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -36716,7 +37022,7 @@
     <n v="62"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -36732,7 +37038,7 @@
     <n v="74"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -36748,7 +37054,7 @@
     <n v="87"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -36764,7 +37070,7 @@
     <n v="45"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -36780,7 +37086,7 @@
     <n v="55"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -36796,7 +37102,7 @@
     <n v="77"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -36812,7 +37118,7 @@
     <n v="62"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -36828,7 +37134,7 @@
     <n v="79"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Mucinous Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -36844,7 +37150,7 @@
     <n v="47"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Mucinous Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -36860,7 +37166,7 @@
     <n v="50"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -36876,7 +37182,7 @@
     <n v="59"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -36892,7 +37198,7 @@
     <n v="56"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -36908,7 +37214,7 @@
     <n v="61"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -36924,7 +37230,7 @@
     <n v="68"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -36940,7 +37246,7 @@
     <n v="49"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -36956,7 +37262,7 @@
     <n v="74"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -36972,7 +37278,7 @@
     <n v="48"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -36988,7 +37294,7 @@
     <n v="50"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37004,7 +37310,7 @@
     <n v="49"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37020,7 +37326,7 @@
     <n v="46"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37036,7 +37342,7 @@
     <n v="68"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37052,7 +37358,7 @@
     <n v="87"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37068,7 +37374,7 @@
     <n v="59"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37084,7 +37390,7 @@
     <n v="71"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37100,7 +37406,7 @@
     <n v="50"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37116,7 +37422,7 @@
     <n v="45"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37132,7 +37438,7 @@
     <n v="84"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37148,7 +37454,7 @@
     <n v="56"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37164,7 +37470,7 @@
     <n v="72"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37180,7 +37486,7 @@
     <n v="81"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37196,7 +37502,7 @@
     <n v="89"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37212,7 +37518,7 @@
     <n v="46"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37228,7 +37534,7 @@
     <n v="61"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37244,7 +37550,7 @@
     <n v="44"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37260,7 +37566,7 @@
     <n v="55"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37276,7 +37582,7 @@
     <n v="78"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37292,7 +37598,7 @@
     <n v="85"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37308,7 +37614,7 @@
     <n v="79"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37324,7 +37630,7 @@
     <n v="60"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37340,7 +37646,7 @@
     <n v="40"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37356,7 +37662,7 @@
     <n v="57"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37372,7 +37678,7 @@
     <n v="54"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37388,7 +37694,7 @@
     <n v="59"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37404,7 +37710,7 @@
     <n v="62"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37420,7 +37726,7 @@
     <n v="76"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37436,7 +37742,7 @@
     <n v="58"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37452,7 +37758,7 @@
     <n v="77"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37468,7 +37774,7 @@
     <n v="67"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37484,7 +37790,7 @@
     <n v="47"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37500,7 +37806,7 @@
     <n v="74"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37516,7 +37822,7 @@
     <n v="76"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37532,7 +37838,7 @@
     <n v="57"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37548,7 +37854,7 @@
     <n v="50"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37564,7 +37870,7 @@
     <n v="54"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37580,7 +37886,7 @@
     <n v="63"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37596,7 +37902,7 @@
     <n v="54"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37612,7 +37918,7 @@
     <n v="82"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37628,7 +37934,7 @@
     <n v="65"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37644,7 +37950,7 @@
     <n v="68"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37660,7 +37966,7 @@
     <n v="77"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37676,7 +37982,7 @@
     <n v="56"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37692,7 +37998,7 @@
     <n v="73"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37708,7 +38014,7 @@
     <n v="85"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37724,7 +38030,7 @@
     <n v="68"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37740,7 +38046,7 @@
     <n v="51"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37756,7 +38062,7 @@
     <n v="55"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37772,7 +38078,7 @@
     <n v="51"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Mucinous Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37788,7 +38094,7 @@
     <n v="83"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37804,7 +38110,7 @@
     <n v="62"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37820,7 +38126,7 @@
     <n v="85"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Mucinous Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37836,7 +38142,7 @@
     <n v="58"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37852,7 +38158,7 @@
     <n v="80"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37868,7 +38174,7 @@
     <n v="48"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37884,7 +38190,7 @@
     <n v="68"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37900,7 +38206,7 @@
     <n v="59"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37916,7 +38222,7 @@
     <n v="50"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37932,7 +38238,7 @@
     <n v="58"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Mucinous Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37948,7 +38254,7 @@
     <n v="39"/>
     <x v="0"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37964,7 +38270,7 @@
     <n v="57"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37980,7 +38286,7 @@
     <n v="66"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -37996,7 +38302,7 @@
     <n v="41"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38012,7 +38318,7 @@
     <n v="60"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38028,7 +38334,7 @@
     <n v="46"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38044,7 +38350,7 @@
     <n v="42"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38060,7 +38366,7 @@
     <n v="45"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38076,7 +38382,7 @@
     <n v="53"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38092,7 +38398,7 @@
     <n v="71"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38108,7 +38414,7 @@
     <n v="66"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38124,7 +38430,7 @@
     <n v="62"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38140,7 +38446,7 @@
     <n v="63"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38156,7 +38462,7 @@
     <n v="59"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38172,7 +38478,7 @@
     <n v="50"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38188,7 +38494,7 @@
     <n v="38"/>
     <x v="0"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38204,7 +38510,7 @@
     <n v="44"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38220,7 +38526,7 @@
     <n v="63"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38236,7 +38542,7 @@
     <n v="50"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38252,7 +38558,7 @@
     <n v="59"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38268,7 +38574,7 @@
     <n v="47"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38284,7 +38590,7 @@
     <n v="45"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38300,7 +38606,7 @@
     <n v="58"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38316,7 +38622,7 @@
     <n v="49"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38332,7 +38638,7 @@
     <n v="64"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38348,7 +38654,7 @@
     <n v="61"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38364,7 +38670,7 @@
     <n v="60"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38380,7 +38686,7 @@
     <n v="65"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38396,7 +38702,7 @@
     <n v="57"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38412,7 +38718,7 @@
     <n v="80"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38428,7 +38734,7 @@
     <n v="75"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38444,7 +38750,7 @@
     <n v="51"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38460,7 +38766,7 @@
     <n v="47"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38476,7 +38782,7 @@
     <n v="47"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38492,7 +38798,7 @@
     <n v="29"/>
     <x v="0"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38508,7 +38814,7 @@
     <n v="32"/>
     <x v="0"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38524,7 +38830,7 @@
     <n v="56"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38540,7 +38846,7 @@
     <n v="58"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38556,7 +38862,7 @@
     <n v="56"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38572,7 +38878,7 @@
     <n v="70"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38588,7 +38894,7 @@
     <n v="73"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38604,7 +38910,7 @@
     <n v="54"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38620,7 +38926,7 @@
     <n v="65"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38636,7 +38942,7 @@
     <n v="56"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38652,7 +38958,7 @@
     <n v="53"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38668,7 +38974,7 @@
     <n v="40"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38684,7 +38990,7 @@
     <n v="38"/>
     <x v="0"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38700,7 +39006,7 @@
     <n v="42"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38716,7 +39022,7 @@
     <n v="69"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38732,7 +39038,7 @@
     <n v="45"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38748,7 +39054,7 @@
     <n v="61"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38764,7 +39070,7 @@
     <n v="71"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38780,7 +39086,7 @@
     <n v="42"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38796,7 +39102,7 @@
     <n v="42"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38812,7 +39118,7 @@
     <n v="63"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38828,7 +39134,7 @@
     <n v="73"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38844,7 +39150,7 @@
     <n v="53"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38860,7 +39166,7 @@
     <n v="51"/>
     <x v="1"/>
     <s v="MALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38876,7 +39182,7 @@
     <n v="29"/>
     <x v="0"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38892,7 +39198,7 @@
     <n v="63"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38908,7 +39214,7 @@
     <n v="77"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38924,7 +39230,7 @@
     <n v="46"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38940,7 +39246,7 @@
     <n v="76"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38956,7 +39262,7 @@
     <n v="48"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38972,7 +39278,7 @@
     <n v="39"/>
     <x v="0"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -38988,7 +39294,7 @@
     <n v="67"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39004,7 +39310,7 @@
     <n v="41"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39020,7 +39326,7 @@
     <n v="50"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39036,7 +39342,7 @@
     <n v="62"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39052,7 +39358,7 @@
     <n v="59"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39068,7 +39374,7 @@
     <n v="36"/>
     <x v="0"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39084,7 +39390,7 @@
     <n v="50"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39100,7 +39406,7 @@
     <n v="90"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39116,7 +39422,7 @@
     <n v="70"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39132,7 +39438,7 @@
     <n v="60"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39148,7 +39454,7 @@
     <n v="47"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39164,7 +39470,7 @@
     <n v="48"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39180,7 +39486,7 @@
     <n v="84"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39196,7 +39502,7 @@
     <n v="54"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39212,7 +39518,7 @@
     <n v="50"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39228,7 +39534,7 @@
     <n v="55"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39244,7 +39550,7 @@
     <n v="49"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39260,7 +39566,7 @@
     <n v="46"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39276,7 +39582,7 @@
     <n v="48"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39292,7 +39598,7 @@
     <n v="49"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39308,7 +39614,7 @@
     <n v="52"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39324,7 +39630,7 @@
     <n v="74"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39340,7 +39646,7 @@
     <n v="40"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39356,7 +39662,7 @@
     <n v="41"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39372,7 +39678,7 @@
     <n v="49"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39388,7 +39694,7 @@
     <n v="83"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39404,7 +39710,7 @@
     <n v="79"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39420,7 +39726,7 @@
     <n v="52"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39436,7 +39742,7 @@
     <n v="46"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39452,7 +39758,7 @@
     <n v="69"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39468,7 +39774,7 @@
     <n v="53"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39484,7 +39790,7 @@
     <n v="63"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39500,7 +39806,7 @@
     <n v="45"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39516,7 +39822,7 @@
     <n v="66"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39532,7 +39838,7 @@
     <n v="52"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39548,7 +39854,7 @@
     <n v="66"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39564,7 +39870,7 @@
     <n v="46"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39580,7 +39886,7 @@
     <n v="76"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39596,7 +39902,7 @@
     <n v="49"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39612,7 +39918,7 @@
     <n v="51"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39628,7 +39934,7 @@
     <n v="42"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39644,7 +39950,7 @@
     <n v="59"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Mucinous Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39660,7 +39966,7 @@
     <n v="40"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39676,7 +39982,7 @@
     <n v="59"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39692,7 +39998,7 @@
     <n v="74"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39708,7 +40014,7 @@
     <n v="47"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39724,7 +40030,7 @@
     <n v="71"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39740,7 +40046,7 @@
     <n v="44"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39756,7 +40062,7 @@
     <n v="49"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39772,7 +40078,7 @@
     <n v="54"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39788,7 +40094,7 @@
     <n v="77"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39804,7 +40110,7 @@
     <n v="66"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39820,7 +40126,7 @@
     <n v="35"/>
     <x v="0"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39836,7 +40142,7 @@
     <n v="45"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39852,7 +40158,7 @@
     <n v="38"/>
     <x v="0"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39868,7 +40174,7 @@
     <n v="63"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39884,7 +40190,7 @@
     <n v="59"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39900,7 +40206,7 @@
     <n v="43"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39916,7 +40222,7 @@
     <n v="85"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39932,7 +40238,7 @@
     <n v="62"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39948,7 +40254,7 @@
     <n v="62"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39964,7 +40270,7 @@
     <n v="50"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39980,7 +40286,7 @@
     <n v="56"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -39996,7 +40302,7 @@
     <n v="78"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40012,7 +40318,7 @@
     <n v="78"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40028,7 +40334,7 @@
     <n v="47"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40044,7 +40350,7 @@
     <n v="51"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40060,7 +40366,7 @@
     <n v="68"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40076,7 +40382,7 @@
     <n v="51"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40092,7 +40398,7 @@
     <n v="64"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40108,7 +40414,7 @@
     <n v="41"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40124,7 +40430,7 @@
     <n v="54"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40140,7 +40446,7 @@
     <n v="54"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40156,7 +40462,7 @@
     <n v="51"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40172,7 +40478,7 @@
     <n v="64"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40188,7 +40494,7 @@
     <n v="56"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40204,7 +40510,7 @@
     <n v="64"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40220,7 +40526,7 @@
     <n v="46"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40236,7 +40542,7 @@
     <n v="40"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40252,7 +40558,7 @@
     <n v="48"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Mucinous Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40268,7 +40574,7 @@
     <n v="54"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40284,7 +40590,7 @@
     <n v="49"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40300,7 +40606,7 @@
     <n v="47"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40316,7 +40622,7 @@
     <n v="59"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40332,7 +40638,7 @@
     <n v="60"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40348,7 +40654,7 @@
     <n v="72"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40364,7 +40670,7 @@
     <n v="56"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Mucinous Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40380,7 +40686,7 @@
     <n v="58"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40396,7 +40702,7 @@
     <n v="37"/>
     <x v="0"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40412,7 +40718,7 @@
     <n v="66"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40428,7 +40734,7 @@
     <n v="71"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40444,7 +40750,7 @@
     <n v="88"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40460,7 +40766,7 @@
     <n v="68"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40476,7 +40782,7 @@
     <n v="57"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40492,7 +40798,7 @@
     <n v="45"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40508,7 +40814,7 @@
     <n v="51"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40524,7 +40830,7 @@
     <n v="63"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40540,7 +40846,7 @@
     <n v="61"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40556,7 +40862,7 @@
     <n v="41"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40572,7 +40878,7 @@
     <n v="50"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40588,7 +40894,7 @@
     <n v="60"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40604,7 +40910,7 @@
     <n v="65"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40620,7 +40926,7 @@
     <n v="54"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40636,7 +40942,7 @@
     <n v="52"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40652,7 +40958,7 @@
     <n v="56"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40668,7 +40974,7 @@
     <n v="79"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40684,7 +40990,7 @@
     <n v="84"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40700,7 +41006,7 @@
     <n v="77"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40716,7 +41022,7 @@
     <n v="57"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40732,7 +41038,7 @@
     <n v="48"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40748,7 +41054,7 @@
     <n v="80"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40764,7 +41070,7 @@
     <n v="68"/>
     <x v="2"/>
     <s v="MALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40780,7 +41086,7 @@
     <n v="69"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40796,7 +41102,7 @@
     <n v="82"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40812,7 +41118,7 @@
     <n v="65"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40828,7 +41134,7 @@
     <n v="63"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40844,7 +41150,7 @@
     <n v="63"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40860,7 +41166,7 @@
     <n v="63"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40876,7 +41182,7 @@
     <n v="43"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40892,7 +41198,7 @@
     <n v="60"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40908,7 +41214,7 @@
     <n v="62"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40924,7 +41230,7 @@
     <n v="39"/>
     <x v="0"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40940,7 +41246,7 @@
     <n v="53"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40956,7 +41262,7 @@
     <n v="88"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40972,7 +41278,7 @@
     <n v="54"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -40988,7 +41294,7 @@
     <n v="88"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41004,7 +41310,7 @@
     <n v="80"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41020,7 +41326,7 @@
     <n v="68"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41036,7 +41342,7 @@
     <n v="74"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41052,7 +41358,7 @@
     <n v="62"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41068,7 +41374,7 @@
     <n v="46"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41084,7 +41390,7 @@
     <n v="46"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41100,7 +41406,7 @@
     <n v="62"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Mucinous Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41116,7 +41422,7 @@
     <n v="54"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41132,7 +41438,7 @@
     <n v="52"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41148,7 +41454,7 @@
     <n v="60"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41164,7 +41470,7 @@
     <n v="61"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41180,7 +41486,7 @@
     <n v="45"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41196,7 +41502,7 @@
     <n v="63"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41212,7 +41518,7 @@
     <n v="63"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41228,7 +41534,7 @@
     <n v="63"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41244,7 +41550,7 @@
     <n v="53"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41260,7 +41566,7 @@
     <n v="68"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41276,7 +41582,7 @@
     <n v="53"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41292,7 +41598,7 @@
     <n v="52"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41308,7 +41614,7 @@
     <n v="56"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41324,7 +41630,7 @@
     <n v="64"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41340,7 +41646,7 @@
     <n v="71"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41356,7 +41662,7 @@
     <n v="59"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41372,7 +41678,7 @@
     <n v="75"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41388,7 +41694,7 @@
     <n v="53"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41404,7 +41710,7 @@
     <n v="50"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41420,7 +41726,7 @@
     <n v="66"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41436,7 +41742,7 @@
     <n v="65"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41452,7 +41758,7 @@
     <n v="44"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41468,7 +41774,7 @@
     <n v="61"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41484,7 +41790,7 @@
     <n v="54"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41500,7 +41806,7 @@
     <n v="64"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41516,7 +41822,7 @@
     <n v="66"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41532,7 +41838,7 @@
     <n v="79"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41548,7 +41854,7 @@
     <n v="59"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41564,7 +41870,7 @@
     <n v="67"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41580,7 +41886,7 @@
     <n v="52"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41596,7 +41902,7 @@
     <n v="77"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41612,7 +41918,7 @@
     <n v="59"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41628,7 +41934,7 @@
     <n v="78"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41644,7 +41950,7 @@
     <n v="46"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41660,7 +41966,7 @@
     <n v="46"/>
     <x v="1"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41676,7 +41982,7 @@
     <n v="60"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41692,7 +41998,7 @@
     <n v="36"/>
     <x v="0"/>
     <s v="FEMALE"/>
-    <s v="III"/>
+    <x v="0"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41708,7 +42014,7 @@
     <n v="44"/>
     <x v="1"/>
     <s v="MALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Lobular Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41724,7 +42030,7 @@
     <n v="61"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="II"/>
+    <x v="1"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41740,7 +42046,7 @@
     <n v="79"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -41756,7 +42062,7 @@
     <n v="76"/>
     <x v="2"/>
     <s v="FEMALE"/>
-    <s v="I"/>
+    <x v="2"/>
     <s v="Infiltrating Ductal Carcinoma"/>
     <s v="Positive"/>
     <s v="Positive"/>
@@ -42114,7 +42420,14 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="4">
@@ -42591,7 +42904,7 @@
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000009000000}" name="PivotTable27" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="A123:E127" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A123:C126" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField dataField="1" showAll="0">
       <items count="335">
@@ -42941,12 +43254,27 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField numFmtId="15" showAll="0"/>
     <pivotField showAll="0">
       <items count="287">
@@ -43298,12 +43626,9 @@
   <rowFields count="1">
     <field x="3"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="2">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
@@ -43312,15 +43637,9 @@
   <colFields count="1">
     <field x="12"/>
   </colFields>
-  <colItems count="4">
+  <colItems count="2">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -44924,7 +45243,14 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="4">
@@ -45303,16 +45629,7 @@
   <dataFields count="1">
     <dataField name="Count of Patient_ID" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="9">
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
+  <chartFormats count="5">
     <chartFormat chart="5" format="5" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -45358,42 +45675,6 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="1" format="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
     <chartFormat chart="10" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -45417,7 +45698,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000007000000}" name="PivotTable23" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000007000000}" name="PivotTable23" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A96:E101" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -45431,7 +45712,14 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -46056,9 +46344,9 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
+        <item h="1" x="1"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
         <item x="3"/>
         <item t="default"/>
       </items>
@@ -46564,7 +46852,14 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -47382,7 +47677,14 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="4">
@@ -48816,6 +49118,157 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Tumour_Stage" xr10:uid="{F495AD13-15B8-473B-988F-2B771B2221F3}" sourceName="Tumour_Stage">
+  <pivotTables>
+    <pivotTable tabId="2" name="PivotTable16"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1003620847">
+      <items count="3">
+        <i x="2"/>
+        <i x="1"/>
+        <i x="0" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Age_Bracket" xr10:uid="{27557BF1-C5F0-4B41-818C-F436CE25C129}" sourceName="Age_Bracket">
+  <pivotTables>
+    <pivotTable tabId="2" name="PivotTable18"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1003620847">
+      <items count="3">
+        <i x="1"/>
+        <i x="2" s="1"/>
+        <i x="0"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Surgery_type" xr10:uid="{1B09B34B-DDF0-4114-B671-75D67DD1C985}" sourceName="Surgery_type">
+  <pivotTables>
+    <pivotTable tabId="2" name="PivotTable22"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1003620847">
+      <items count="4">
+        <i x="1"/>
+        <i x="0"/>
+        <i x="2"/>
+        <i x="3" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Age_Bracket1" xr10:uid="{A0A40498-1B1C-4908-A477-16256DFB955D}" sourceName="Age_Bracket">
+  <pivotTables>
+    <pivotTable tabId="2" name="PivotTable21"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1003620847">
+      <items count="3">
+        <i x="1"/>
+        <i x="2"/>
+        <i x="0" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache5.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Age_Bracket2" xr10:uid="{D015A5B2-C8F0-492B-8740-A34ED3FDD751}" sourceName="Age_Bracket">
+  <pivotTables>
+    <pivotTable tabId="2" name="PivotTable26"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1003620847">
+      <items count="3">
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+        <i x="0" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache6.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Tumour_Stage1" xr10:uid="{D2FB66D5-3FD2-498A-B0F6-1A8A27215F03}" sourceName="Tumour_Stage">
+  <pivotTables>
+    <pivotTable tabId="2" name="PivotTable23"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1939457192">
+      <items count="3">
+        <i x="2"/>
+        <i x="1"/>
+        <i x="0" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache7.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Tumour_Stage2" xr10:uid="{FCA059FB-4B31-47E0-A0BA-C6CF7C3BD512}" sourceName="Tumour_Stage">
+  <pivotTables>
+    <pivotTable tabId="2" name="PivotTable27"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1003620847">
+      <items count="3">
+        <i x="2"/>
+        <i x="1"/>
+        <i x="0" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache8.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Surgery_type1" xr10:uid="{16B178CB-331E-4C33-9750-E4E0CCA12DEE}" sourceName="Surgery_type">
+  <pivotTables>
+    <pivotTable tabId="2" name="PivotTable27"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1003620847">
+      <items count="4">
+        <i x="1" s="1"/>
+        <i x="0"/>
+        <i x="2"/>
+        <i x="3"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Tumour_Stage" xr10:uid="{3701028A-FDEB-4F93-A775-62112A6F2658}" cache="Slicer_Tumour_Stage" caption="Tumour_Stage" rowHeight="241300"/>
+  <slicer name="Age_Bracket" xr10:uid="{DE732CCE-8B1A-4EF2-A508-448DE35161B3}" cache="Slicer_Age_Bracket" caption="Age_Bracket" rowHeight="241300"/>
+  <slicer name="Surgery_type" xr10:uid="{CC0C7985-2F7D-4B60-B3E6-AED2AE525947}" cache="Slicer_Surgery_type" caption="Surgery_type" rowHeight="241300"/>
+  <slicer name="Age_Bracket 1" xr10:uid="{62CB3E1F-DB5B-4D3E-BEB4-C45CFFCB3E8B}" cache="Slicer_Age_Bracket1" caption="Age_Bracket" rowHeight="241300"/>
+  <slicer name="Age_Bracket 2" xr10:uid="{5DDACA85-D737-4EC2-802D-0BE9A25C2D58}" cache="Slicer_Age_Bracket2" caption="Age_Bracket" startItem="1" rowHeight="241300"/>
+  <slicer name="Tumour_Stage 1" xr10:uid="{3616B63B-AAA1-4891-8BE7-F61ECC163F64}" cache="Slicer_Tumour_Stage1" caption="Tumour_Stage" rowHeight="241300"/>
+  <slicer name="Tumour_Stage 2" xr10:uid="{41B05FC5-D287-4CDE-869D-1F58CBE9FC5F}" cache="Slicer_Tumour_Stage2" caption="Tumour_Stage" rowHeight="241300"/>
+  <slicer name="Surgery_type 1" xr10:uid="{B5B16886-15FE-403F-A966-35ED611962D8}" cache="Slicer_Surgery_type1" caption="Surgery_type" rowHeight="241300"/>
+</slicers>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -49132,18 +49585,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:F151"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="I108" sqref="I108"/>
+    <sheetView topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="J127" sqref="J127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
@@ -49169,32 +49619,32 @@
       <c r="A4" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B4">
-        <v>169</v>
+      <c r="B4" s="12">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B5">
-        <v>150</v>
+      <c r="B5" s="12">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B6">
-        <v>15</v>
+      <c r="B6" s="12">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B7">
-        <v>334</v>
+      <c r="B7" s="12">
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -49241,32 +49691,32 @@
       <c r="A30" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B30">
-        <v>64</v>
+      <c r="B30" s="12">
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B31">
-        <v>189</v>
+      <c r="B31" s="12">
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B32">
-        <v>81</v>
+      <c r="B32" s="12">
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B33">
-        <v>334</v>
+      <c r="B33" s="12">
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -49373,80 +49823,74 @@
       <c r="A56" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B56">
-        <v>22</v>
-      </c>
-      <c r="C56">
-        <v>8</v>
-      </c>
-      <c r="D56">
-        <v>20</v>
-      </c>
-      <c r="E56">
-        <v>14</v>
-      </c>
-      <c r="F56">
-        <v>64</v>
+      <c r="B56" s="12">
+        <v>1</v>
+      </c>
+      <c r="C56" s="12">
+        <v>1</v>
+      </c>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12">
+        <v>1</v>
+      </c>
+      <c r="F56" s="12">
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B57">
-        <v>36</v>
-      </c>
-      <c r="C57">
-        <v>49</v>
-      </c>
-      <c r="D57">
-        <v>61</v>
-      </c>
-      <c r="E57">
-        <v>43</v>
-      </c>
-      <c r="F57">
-        <v>189</v>
+      <c r="B57" s="12">
+        <v>2</v>
+      </c>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12">
+        <v>2</v>
+      </c>
+      <c r="E57" s="12">
+        <v>2</v>
+      </c>
+      <c r="F57" s="12">
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B58">
-        <v>8</v>
-      </c>
-      <c r="C58">
-        <v>39</v>
-      </c>
-      <c r="D58">
-        <v>24</v>
-      </c>
-      <c r="E58">
-        <v>10</v>
-      </c>
-      <c r="F58">
-        <v>81</v>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12">
+        <v>4</v>
+      </c>
+      <c r="D58" s="12">
+        <v>1</v>
+      </c>
+      <c r="E58" s="12">
+        <v>1</v>
+      </c>
+      <c r="F58" s="12">
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B59">
-        <v>66</v>
-      </c>
-      <c r="C59">
-        <v>96</v>
-      </c>
-      <c r="D59">
-        <v>105</v>
-      </c>
-      <c r="E59">
-        <v>67</v>
-      </c>
-      <c r="F59">
-        <v>334</v>
+      <c r="B59" s="12">
+        <v>3</v>
+      </c>
+      <c r="C59" s="12">
+        <v>5</v>
+      </c>
+      <c r="D59" s="12">
+        <v>3</v>
+      </c>
+      <c r="E59" s="12">
+        <v>4</v>
+      </c>
+      <c r="F59" s="12">
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -49478,68 +49922,66 @@
       <c r="A81" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B81">
-        <v>51</v>
-      </c>
-      <c r="C81">
+      <c r="B81" s="12">
         <v>10</v>
       </c>
-      <c r="D81">
+      <c r="C81" s="12">
         <v>3</v>
       </c>
-      <c r="E81">
-        <v>64</v>
+      <c r="D81" s="12">
+        <v>1</v>
+      </c>
+      <c r="E81" s="12">
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B82">
-        <v>144</v>
-      </c>
-      <c r="C82">
+      <c r="B82" s="12">
         <v>38</v>
       </c>
-      <c r="D82">
-        <v>7</v>
-      </c>
-      <c r="E82">
-        <v>189</v>
+      <c r="C82" s="12">
+        <v>5</v>
+      </c>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12">
+        <v>43</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B83">
-        <v>60</v>
-      </c>
-      <c r="C83">
-        <v>18</v>
-      </c>
-      <c r="D83">
-        <v>3</v>
-      </c>
-      <c r="E83">
-        <v>81</v>
+      <c r="B83" s="12">
+        <v>5</v>
+      </c>
+      <c r="C83" s="12">
+        <v>4</v>
+      </c>
+      <c r="D83" s="12">
+        <v>1</v>
+      </c>
+      <c r="E83" s="12">
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B84">
-        <v>255</v>
-      </c>
-      <c r="C84">
-        <v>66</v>
-      </c>
-      <c r="D84">
-        <v>13</v>
-      </c>
-      <c r="E84">
-        <v>334</v>
+      <c r="B84" s="12">
+        <v>53</v>
+      </c>
+      <c r="C84" s="12">
+        <v>12</v>
+      </c>
+      <c r="D84" s="12">
+        <v>2</v>
+      </c>
+      <c r="E84" s="12">
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -49571,65 +50013,64 @@
       <c r="A98" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B98">
-        <v>131</v>
-      </c>
-      <c r="C98">
-        <v>31</v>
-      </c>
-      <c r="D98">
-        <v>7</v>
-      </c>
-      <c r="E98">
-        <v>169</v>
+      <c r="B98" s="12">
+        <v>33</v>
+      </c>
+      <c r="C98" s="12">
+        <v>12</v>
+      </c>
+      <c r="D98" s="12">
+        <v>3</v>
+      </c>
+      <c r="E98" s="12">
+        <v>48</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B99">
-        <v>112</v>
-      </c>
-      <c r="C99">
-        <v>32</v>
-      </c>
-      <c r="D99">
-        <v>6</v>
-      </c>
-      <c r="E99">
-        <v>150</v>
+      <c r="B99" s="12">
+        <v>22</v>
+      </c>
+      <c r="C99" s="12">
+        <v>5</v>
+      </c>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12">
+        <v>27</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B100">
-        <v>12</v>
-      </c>
-      <c r="C100">
-        <v>3</v>
-      </c>
-      <c r="E100">
-        <v>15</v>
+      <c r="B100" s="12">
+        <v>5</v>
+      </c>
+      <c r="C100" s="12">
+        <v>1</v>
+      </c>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12">
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B101">
-        <v>255</v>
-      </c>
-      <c r="C101">
-        <v>66</v>
-      </c>
-      <c r="D101">
-        <v>13</v>
-      </c>
-      <c r="E101">
-        <v>334</v>
+      <c r="B101" s="12">
+        <v>60</v>
+      </c>
+      <c r="C101" s="12">
+        <v>18</v>
+      </c>
+      <c r="D101" s="12">
+        <v>3</v>
+      </c>
+      <c r="E101" s="12">
+        <v>81</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -49654,63 +50095,63 @@
         <v>367</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="12">
         <v>61</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="12">
         <v>3</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="12">
         <v>64</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="12">
         <v>176</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="12">
         <v>13</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="12">
         <v>189</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="12">
         <v>68</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="12">
         <v>13</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="12">
         <v>81</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="12">
         <v>305</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="12">
         <v>29</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="12">
         <v>334</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>368</v>
       </c>
@@ -49718,7 +50159,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>363</v>
       </c>
@@ -49726,61 +50167,29 @@
         <v>19</v>
       </c>
       <c r="C124" t="s">
-        <v>24</v>
-      </c>
-      <c r="D124" t="s">
-        <v>371</v>
-      </c>
-      <c r="E124" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B125">
-        <v>252</v>
-      </c>
-      <c r="C125">
-        <v>65</v>
-      </c>
-      <c r="D125">
-        <v>13</v>
-      </c>
-      <c r="E125">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B125" s="12">
+        <v>8</v>
+      </c>
+      <c r="C125" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B126">
-        <v>3</v>
-      </c>
-      <c r="C126">
-        <v>1</v>
-      </c>
-      <c r="E126">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B127">
-        <v>255</v>
-      </c>
-      <c r="C127">
-        <v>66</v>
-      </c>
-      <c r="D127">
-        <v>13</v>
-      </c>
-      <c r="E127">
-        <v>334</v>
+      <c r="B126" s="12">
+        <v>8</v>
+      </c>
+      <c r="C126" s="12">
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
@@ -49851,27 +50260,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="H1:U183"/>
+  <dimension ref="K1:X183"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H34" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H43" workbookViewId="0">
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="6" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:21" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="8:21" ht="43.5" x14ac:dyDescent="0.65">
-      <c r="H2" s="4"/>
-      <c r="I2" s="7" t="s">
+    <row r="1" spans="11:24" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="11:24" ht="43.5" x14ac:dyDescent="0.65">
+      <c r="K2" s="4"/>
+      <c r="L2" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
@@ -49880,13 +50286,13 @@
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
-      <c r="U2" s="6"/>
-    </row>
-    <row r="3" spans="8:21" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="H3" s="9"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="6"/>
+    </row>
+    <row r="3" spans="11:24" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="K3" s="9"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
@@ -49897,11 +50303,11 @@
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
-    </row>
-    <row r="4" spans="8:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+    </row>
+    <row r="4" spans="11:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
@@ -49911,11 +50317,11 @@
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
-    </row>
-    <row r="5" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+    </row>
+    <row r="5" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -49927,11 +50333,11 @@
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
-    </row>
-    <row r="6" spans="8:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+    </row>
+    <row r="6" spans="11:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -49943,11 +50349,11 @@
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
-    </row>
-    <row r="7" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+    </row>
+    <row r="7" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -49959,11 +50365,11 @@
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
-    </row>
-    <row r="8" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+    </row>
+    <row r="8" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -49975,11 +50381,11 @@
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
-    </row>
-    <row r="9" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+    </row>
+    <row r="9" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -49991,11 +50397,11 @@
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
-    </row>
-    <row r="10" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+    </row>
+    <row r="10" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -50007,11 +50413,11 @@
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
-    </row>
-    <row r="11" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+    </row>
+    <row r="11" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -50023,11 +50429,11 @@
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
-    </row>
-    <row r="12" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+    </row>
+    <row r="12" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -50039,11 +50445,11 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
-    </row>
-    <row r="13" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+    </row>
+    <row r="13" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -50055,11 +50461,11 @@
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
-    </row>
-    <row r="14" spans="8:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+    </row>
+    <row r="14" spans="11:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
@@ -50070,12 +50476,12 @@
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
-      <c r="U14" s="4"/>
-    </row>
-    <row r="15" spans="8:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="4"/>
+    </row>
+    <row r="15" spans="11:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
@@ -50087,12 +50493,12 @@
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
-    </row>
-    <row r="16" spans="8:21" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+    </row>
+    <row r="16" spans="11:24" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
@@ -50104,11 +50510,11 @@
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
-    </row>
-    <row r="18" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+    </row>
+    <row r="18" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
@@ -50120,11 +50526,11 @@
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
-    </row>
-    <row r="19" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+    </row>
+    <row r="19" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
@@ -50136,11 +50542,11 @@
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
-    </row>
-    <row r="20" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+    </row>
+    <row r="20" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
@@ -50152,11 +50558,11 @@
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
-    </row>
-    <row r="21" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+    </row>
+    <row r="21" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
@@ -50168,11 +50574,11 @@
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
-    </row>
-    <row r="22" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+    </row>
+    <row r="22" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -50184,11 +50590,11 @@
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
-    </row>
-    <row r="23" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+    </row>
+    <row r="23" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -50200,11 +50606,11 @@
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
-    </row>
-    <row r="24" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+    </row>
+    <row r="24" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
@@ -50216,11 +50622,11 @@
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
-    </row>
-    <row r="25" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+    </row>
+    <row r="25" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
@@ -50232,11 +50638,11 @@
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
-    </row>
-    <row r="26" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+    </row>
+    <row r="26" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
@@ -50248,11 +50654,11 @@
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
-    </row>
-    <row r="27" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+    </row>
+    <row r="27" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
@@ -50264,11 +50670,11 @@
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
-    </row>
-    <row r="28" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+    </row>
+    <row r="28" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
@@ -50280,11 +50686,11 @@
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
-    </row>
-    <row r="29" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+    </row>
+    <row r="29" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
@@ -50296,11 +50702,11 @@
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
-    </row>
-    <row r="30" spans="8:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+    </row>
+    <row r="30" spans="11:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
@@ -50312,12 +50718,12 @@
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
-    </row>
-    <row r="31" spans="8:21" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+    </row>
+    <row r="31" spans="11:24" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
@@ -50329,11 +50735,11 @@
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
-    </row>
-    <row r="33" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+    </row>
+    <row r="33" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
@@ -50345,11 +50751,11 @@
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
-    </row>
-    <row r="34" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+    </row>
+    <row r="34" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
@@ -50361,11 +50767,11 @@
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
-    </row>
-    <row r="35" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+    </row>
+    <row r="35" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
@@ -50377,11 +50783,11 @@
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
-    </row>
-    <row r="36" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+    </row>
+    <row r="36" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
@@ -50393,11 +50799,11 @@
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
-    </row>
-    <row r="37" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+    </row>
+    <row r="37" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
@@ -50409,11 +50815,11 @@
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
-    </row>
-    <row r="38" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+    </row>
+    <row r="38" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
@@ -50425,11 +50831,11 @@
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
-    </row>
-    <row r="39" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+    </row>
+    <row r="39" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
@@ -50441,11 +50847,11 @@
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
-    </row>
-    <row r="40" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+    </row>
+    <row r="40" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
@@ -50457,11 +50863,11 @@
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
-    </row>
-    <row r="41" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+    </row>
+    <row r="41" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
@@ -50473,11 +50879,11 @@
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
-    </row>
-    <row r="42" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+    </row>
+    <row r="42" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
@@ -50489,11 +50895,11 @@
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
-    </row>
-    <row r="43" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+    </row>
+    <row r="43" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
@@ -50505,12 +50911,12 @@
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
-    </row>
-    <row r="44" spans="8:21" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+    </row>
+    <row r="44" spans="11:24" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
@@ -50522,11 +50928,11 @@
       <c r="S45" s="4"/>
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
-    </row>
-    <row r="46" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+    </row>
+    <row r="46" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
@@ -50538,11 +50944,11 @@
       <c r="S46" s="4"/>
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
-    </row>
-    <row r="47" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+    </row>
+    <row r="47" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
@@ -50554,11 +50960,11 @@
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
-    </row>
-    <row r="48" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+    </row>
+    <row r="48" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
@@ -50570,11 +50976,11 @@
       <c r="S48" s="4"/>
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
-    </row>
-    <row r="49" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+    </row>
+    <row r="49" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
@@ -50586,11 +50992,11 @@
       <c r="S49" s="4"/>
       <c r="T49" s="4"/>
       <c r="U49" s="4"/>
-    </row>
-    <row r="50" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+    </row>
+    <row r="50" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
@@ -50602,11 +51008,11 @@
       <c r="S50" s="4"/>
       <c r="T50" s="4"/>
       <c r="U50" s="4"/>
-    </row>
-    <row r="51" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+    </row>
+    <row r="51" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
@@ -50618,11 +51024,11 @@
       <c r="S51" s="4"/>
       <c r="T51" s="4"/>
       <c r="U51" s="4"/>
-    </row>
-    <row r="52" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+    </row>
+    <row r="52" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
@@ -50634,11 +51040,11 @@
       <c r="S52" s="4"/>
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
-    </row>
-    <row r="53" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+    </row>
+    <row r="53" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
@@ -50650,11 +51056,11 @@
       <c r="S53" s="4"/>
       <c r="T53" s="4"/>
       <c r="U53" s="4"/>
-    </row>
-    <row r="54" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+    </row>
+    <row r="54" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
@@ -50666,11 +51072,11 @@
       <c r="S54" s="4"/>
       <c r="T54" s="4"/>
       <c r="U54" s="4"/>
-    </row>
-    <row r="55" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="4"/>
+    </row>
+    <row r="55" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
@@ -50682,11 +51088,11 @@
       <c r="S55" s="4"/>
       <c r="T55" s="4"/>
       <c r="U55" s="4"/>
-    </row>
-    <row r="56" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
+      <c r="X55" s="4"/>
+    </row>
+    <row r="56" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
@@ -50698,11 +51104,11 @@
       <c r="S56" s="4"/>
       <c r="T56" s="4"/>
       <c r="U56" s="4"/>
-    </row>
-    <row r="57" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4"/>
+    </row>
+    <row r="57" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
@@ -50714,11 +51120,11 @@
       <c r="S57" s="4"/>
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
-    </row>
-    <row r="58" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="4"/>
+    </row>
+    <row r="58" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
@@ -50730,11 +51136,11 @@
       <c r="S58" s="4"/>
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
-    </row>
-    <row r="59" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4"/>
+    </row>
+    <row r="59" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
@@ -50746,11 +51152,11 @@
       <c r="S59" s="4"/>
       <c r="T59" s="4"/>
       <c r="U59" s="4"/>
-    </row>
-    <row r="60" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="4"/>
+      <c r="X59" s="4"/>
+    </row>
+    <row r="60" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
@@ -50762,11 +51168,11 @@
       <c r="S60" s="4"/>
       <c r="T60" s="4"/>
       <c r="U60" s="4"/>
-    </row>
-    <row r="61" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
+      <c r="V60" s="4"/>
+      <c r="W60" s="4"/>
+      <c r="X60" s="4"/>
+    </row>
+    <row r="61" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
@@ -50778,11 +51184,11 @@
       <c r="S61" s="4"/>
       <c r="T61" s="4"/>
       <c r="U61" s="4"/>
-    </row>
-    <row r="62" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="4"/>
+      <c r="X61" s="4"/>
+    </row>
+    <row r="62" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
@@ -50794,11 +51200,11 @@
       <c r="S62" s="4"/>
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
-    </row>
-    <row r="63" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
+      <c r="V62" s="4"/>
+      <c r="W62" s="4"/>
+      <c r="X62" s="4"/>
+    </row>
+    <row r="63" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
@@ -50810,11 +51216,11 @@
       <c r="S63" s="4"/>
       <c r="T63" s="4"/>
       <c r="U63" s="4"/>
-    </row>
-    <row r="64" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="4"/>
+      <c r="X63" s="4"/>
+    </row>
+    <row r="64" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
@@ -50826,11 +51232,11 @@
       <c r="S64" s="4"/>
       <c r="T64" s="4"/>
       <c r="U64" s="4"/>
-    </row>
-    <row r="65" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
+      <c r="V64" s="4"/>
+      <c r="W64" s="4"/>
+      <c r="X64" s="4"/>
+    </row>
+    <row r="65" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
@@ -50842,11 +51248,11 @@
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
-    </row>
-    <row r="66" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="4"/>
+      <c r="X65" s="4"/>
+    </row>
+    <row r="66" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
@@ -50858,11 +51264,11 @@
       <c r="S66" s="4"/>
       <c r="T66" s="4"/>
       <c r="U66" s="4"/>
-    </row>
-    <row r="67" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
+      <c r="V66" s="4"/>
+      <c r="W66" s="4"/>
+      <c r="X66" s="4"/>
+    </row>
+    <row r="67" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
@@ -50874,11 +51280,11 @@
       <c r="S67" s="4"/>
       <c r="T67" s="4"/>
       <c r="U67" s="4"/>
-    </row>
-    <row r="68" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
+      <c r="V67" s="4"/>
+      <c r="W67" s="4"/>
+      <c r="X67" s="4"/>
+    </row>
+    <row r="68" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
@@ -50890,11 +51296,11 @@
       <c r="S68" s="4"/>
       <c r="T68" s="4"/>
       <c r="U68" s="4"/>
-    </row>
-    <row r="69" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
+      <c r="V68" s="4"/>
+      <c r="W68" s="4"/>
+      <c r="X68" s="4"/>
+    </row>
+    <row r="69" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
@@ -50906,11 +51312,11 @@
       <c r="S69" s="4"/>
       <c r="T69" s="4"/>
       <c r="U69" s="4"/>
-    </row>
-    <row r="70" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
+      <c r="V69" s="4"/>
+      <c r="W69" s="4"/>
+      <c r="X69" s="4"/>
+    </row>
+    <row r="70" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
@@ -50922,11 +51328,11 @@
       <c r="S70" s="4"/>
       <c r="T70" s="4"/>
       <c r="U70" s="4"/>
-    </row>
-    <row r="71" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="4"/>
+      <c r="X70" s="4"/>
+    </row>
+    <row r="71" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
@@ -50938,11 +51344,11 @@
       <c r="S71" s="4"/>
       <c r="T71" s="4"/>
       <c r="U71" s="4"/>
-    </row>
-    <row r="72" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
+      <c r="V71" s="4"/>
+      <c r="W71" s="4"/>
+      <c r="X71" s="4"/>
+    </row>
+    <row r="72" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
@@ -50954,11 +51360,11 @@
       <c r="S72" s="4"/>
       <c r="T72" s="4"/>
       <c r="U72" s="4"/>
-    </row>
-    <row r="73" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="4"/>
+      <c r="X72" s="4"/>
+    </row>
+    <row r="73" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
@@ -50970,11 +51376,11 @@
       <c r="S73" s="4"/>
       <c r="T73" s="4"/>
       <c r="U73" s="4"/>
-    </row>
-    <row r="74" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
+      <c r="V73" s="4"/>
+      <c r="W73" s="4"/>
+      <c r="X73" s="4"/>
+    </row>
+    <row r="74" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
@@ -50986,11 +51392,11 @@
       <c r="S74" s="4"/>
       <c r="T74" s="4"/>
       <c r="U74" s="4"/>
-    </row>
-    <row r="75" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
+      <c r="V74" s="4"/>
+      <c r="W74" s="4"/>
+      <c r="X74" s="4"/>
+    </row>
+    <row r="75" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
@@ -51002,11 +51408,11 @@
       <c r="S75" s="4"/>
       <c r="T75" s="4"/>
       <c r="U75" s="4"/>
-    </row>
-    <row r="76" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
+      <c r="V75" s="4"/>
+      <c r="W75" s="4"/>
+      <c r="X75" s="4"/>
+    </row>
+    <row r="76" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
@@ -51018,11 +51424,11 @@
       <c r="S76" s="4"/>
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
-    </row>
-    <row r="77" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
+      <c r="V76" s="4"/>
+      <c r="W76" s="4"/>
+      <c r="X76" s="4"/>
+    </row>
+    <row r="77" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
@@ -51034,11 +51440,11 @@
       <c r="S77" s="4"/>
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
-    </row>
-    <row r="78" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="4"/>
+      <c r="X77" s="4"/>
+    </row>
+    <row r="78" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
@@ -51050,11 +51456,11 @@
       <c r="S78" s="4"/>
       <c r="T78" s="4"/>
       <c r="U78" s="4"/>
-    </row>
-    <row r="79" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
+      <c r="V78" s="4"/>
+      <c r="W78" s="4"/>
+      <c r="X78" s="4"/>
+    </row>
+    <row r="79" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
       <c r="M79" s="4"/>
@@ -51066,11 +51472,11 @@
       <c r="S79" s="4"/>
       <c r="T79" s="4"/>
       <c r="U79" s="4"/>
-    </row>
-    <row r="80" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
+      <c r="V79" s="4"/>
+      <c r="W79" s="4"/>
+      <c r="X79" s="4"/>
+    </row>
+    <row r="80" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
@@ -51082,11 +51488,11 @@
       <c r="S80" s="4"/>
       <c r="T80" s="4"/>
       <c r="U80" s="4"/>
-    </row>
-    <row r="81" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
+      <c r="V80" s="4"/>
+      <c r="W80" s="4"/>
+      <c r="X80" s="4"/>
+    </row>
+    <row r="81" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
       <c r="M81" s="4"/>
@@ -51098,11 +51504,11 @@
       <c r="S81" s="4"/>
       <c r="T81" s="4"/>
       <c r="U81" s="4"/>
-    </row>
-    <row r="82" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
+      <c r="V81" s="4"/>
+      <c r="W81" s="4"/>
+      <c r="X81" s="4"/>
+    </row>
+    <row r="82" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
       <c r="M82" s="4"/>
@@ -51114,11 +51520,11 @@
       <c r="S82" s="4"/>
       <c r="T82" s="4"/>
       <c r="U82" s="4"/>
-    </row>
-    <row r="83" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
+      <c r="V82" s="4"/>
+      <c r="W82" s="4"/>
+      <c r="X82" s="4"/>
+    </row>
+    <row r="83" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
       <c r="M83" s="4"/>
@@ -51130,11 +51536,11 @@
       <c r="S83" s="4"/>
       <c r="T83" s="4"/>
       <c r="U83" s="4"/>
-    </row>
-    <row r="84" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
+      <c r="V83" s="4"/>
+      <c r="W83" s="4"/>
+      <c r="X83" s="4"/>
+    </row>
+    <row r="84" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
       <c r="M84" s="4"/>
@@ -51146,11 +51552,11 @@
       <c r="S84" s="4"/>
       <c r="T84" s="4"/>
       <c r="U84" s="4"/>
-    </row>
-    <row r="85" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
+      <c r="V84" s="4"/>
+      <c r="W84" s="4"/>
+      <c r="X84" s="4"/>
+    </row>
+    <row r="85" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
       <c r="M85" s="4"/>
@@ -51162,11 +51568,11 @@
       <c r="S85" s="4"/>
       <c r="T85" s="4"/>
       <c r="U85" s="4"/>
-    </row>
-    <row r="86" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
+      <c r="V85" s="4"/>
+      <c r="W85" s="4"/>
+      <c r="X85" s="4"/>
+    </row>
+    <row r="86" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
       <c r="M86" s="4"/>
@@ -51178,11 +51584,11 @@
       <c r="S86" s="4"/>
       <c r="T86" s="4"/>
       <c r="U86" s="4"/>
-    </row>
-    <row r="87" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
+      <c r="V86" s="4"/>
+      <c r="W86" s="4"/>
+      <c r="X86" s="4"/>
+    </row>
+    <row r="87" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
       <c r="M87" s="4"/>
@@ -51194,11 +51600,11 @@
       <c r="S87" s="4"/>
       <c r="T87" s="4"/>
       <c r="U87" s="4"/>
-    </row>
-    <row r="88" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
+      <c r="V87" s="4"/>
+      <c r="W87" s="4"/>
+      <c r="X87" s="4"/>
+    </row>
+    <row r="88" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
       <c r="M88" s="4"/>
@@ -51210,11 +51616,11 @@
       <c r="S88" s="4"/>
       <c r="T88" s="4"/>
       <c r="U88" s="4"/>
-    </row>
-    <row r="89" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
+      <c r="V88" s="4"/>
+      <c r="W88" s="4"/>
+      <c r="X88" s="4"/>
+    </row>
+    <row r="89" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
       <c r="M89" s="4"/>
@@ -51226,11 +51632,11 @@
       <c r="S89" s="4"/>
       <c r="T89" s="4"/>
       <c r="U89" s="4"/>
-    </row>
-    <row r="90" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
+      <c r="V89" s="4"/>
+      <c r="W89" s="4"/>
+      <c r="X89" s="4"/>
+    </row>
+    <row r="90" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
       <c r="M90" s="4"/>
@@ -51242,11 +51648,11 @@
       <c r="S90" s="4"/>
       <c r="T90" s="4"/>
       <c r="U90" s="4"/>
-    </row>
-    <row r="91" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
+      <c r="V90" s="4"/>
+      <c r="W90" s="4"/>
+      <c r="X90" s="4"/>
+    </row>
+    <row r="91" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
       <c r="M91" s="4"/>
@@ -51258,11 +51664,11 @@
       <c r="S91" s="4"/>
       <c r="T91" s="4"/>
       <c r="U91" s="4"/>
-    </row>
-    <row r="92" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
+      <c r="V91" s="4"/>
+      <c r="W91" s="4"/>
+      <c r="X91" s="4"/>
+    </row>
+    <row r="92" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
       <c r="M92" s="4"/>
@@ -51274,11 +51680,11 @@
       <c r="S92" s="4"/>
       <c r="T92" s="4"/>
       <c r="U92" s="4"/>
-    </row>
-    <row r="93" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
+      <c r="V92" s="4"/>
+      <c r="W92" s="4"/>
+      <c r="X92" s="4"/>
+    </row>
+    <row r="93" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
@@ -51290,11 +51696,11 @@
       <c r="S93" s="4"/>
       <c r="T93" s="4"/>
       <c r="U93" s="4"/>
-    </row>
-    <row r="94" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
+      <c r="V93" s="4"/>
+      <c r="W93" s="4"/>
+      <c r="X93" s="4"/>
+    </row>
+    <row r="94" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
@@ -51306,11 +51712,11 @@
       <c r="S94" s="4"/>
       <c r="T94" s="4"/>
       <c r="U94" s="4"/>
-    </row>
-    <row r="95" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
+      <c r="V94" s="4"/>
+      <c r="W94" s="4"/>
+      <c r="X94" s="4"/>
+    </row>
+    <row r="95" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
@@ -51322,11 +51728,11 @@
       <c r="S95" s="4"/>
       <c r="T95" s="4"/>
       <c r="U95" s="4"/>
-    </row>
-    <row r="96" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H96" s="4"/>
-      <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
+      <c r="V95" s="4"/>
+      <c r="W95" s="4"/>
+      <c r="X95" s="4"/>
+    </row>
+    <row r="96" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
       <c r="M96" s="4"/>
@@ -51338,11 +51744,11 @@
       <c r="S96" s="4"/>
       <c r="T96" s="4"/>
       <c r="U96" s="4"/>
-    </row>
-    <row r="97" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H97" s="4"/>
-      <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
+      <c r="V96" s="4"/>
+      <c r="W96" s="4"/>
+      <c r="X96" s="4"/>
+    </row>
+    <row r="97" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
       <c r="M97" s="4"/>
@@ -51354,11 +51760,11 @@
       <c r="S97" s="4"/>
       <c r="T97" s="4"/>
       <c r="U97" s="4"/>
-    </row>
-    <row r="98" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
+      <c r="V97" s="4"/>
+      <c r="W97" s="4"/>
+      <c r="X97" s="4"/>
+    </row>
+    <row r="98" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
@@ -51370,11 +51776,11 @@
       <c r="S98" s="4"/>
       <c r="T98" s="4"/>
       <c r="U98" s="4"/>
-    </row>
-    <row r="99" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
+      <c r="V98" s="4"/>
+      <c r="W98" s="4"/>
+      <c r="X98" s="4"/>
+    </row>
+    <row r="99" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
       <c r="M99" s="4"/>
@@ -51386,11 +51792,11 @@
       <c r="S99" s="4"/>
       <c r="T99" s="4"/>
       <c r="U99" s="4"/>
-    </row>
-    <row r="100" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H100" s="4"/>
-      <c r="I100" s="4"/>
-      <c r="J100" s="4"/>
+      <c r="V99" s="4"/>
+      <c r="W99" s="4"/>
+      <c r="X99" s="4"/>
+    </row>
+    <row r="100" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
       <c r="M100" s="4"/>
@@ -51402,11 +51808,11 @@
       <c r="S100" s="4"/>
       <c r="T100" s="4"/>
       <c r="U100" s="4"/>
-    </row>
-    <row r="101" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H101" s="4"/>
-      <c r="I101" s="4"/>
-      <c r="J101" s="4"/>
+      <c r="V100" s="4"/>
+      <c r="W100" s="4"/>
+      <c r="X100" s="4"/>
+    </row>
+    <row r="101" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
       <c r="M101" s="4"/>
@@ -51418,11 +51824,11 @@
       <c r="S101" s="4"/>
       <c r="T101" s="4"/>
       <c r="U101" s="4"/>
-    </row>
-    <row r="102" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H102" s="4"/>
-      <c r="I102" s="4"/>
-      <c r="J102" s="4"/>
+      <c r="V101" s="4"/>
+      <c r="W101" s="4"/>
+      <c r="X101" s="4"/>
+    </row>
+    <row r="102" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
       <c r="M102" s="4"/>
@@ -51434,11 +51840,11 @@
       <c r="S102" s="4"/>
       <c r="T102" s="4"/>
       <c r="U102" s="4"/>
-    </row>
-    <row r="103" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H103" s="4"/>
-      <c r="I103" s="4"/>
-      <c r="J103" s="4"/>
+      <c r="V102" s="4"/>
+      <c r="W102" s="4"/>
+      <c r="X102" s="4"/>
+    </row>
+    <row r="103" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K103" s="4"/>
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
@@ -51450,11 +51856,11 @@
       <c r="S103" s="4"/>
       <c r="T103" s="4"/>
       <c r="U103" s="4"/>
-    </row>
-    <row r="104" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H104" s="4"/>
-      <c r="I104" s="4"/>
-      <c r="J104" s="4"/>
+      <c r="V103" s="4"/>
+      <c r="W103" s="4"/>
+      <c r="X103" s="4"/>
+    </row>
+    <row r="104" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K104" s="4"/>
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
@@ -51466,11 +51872,11 @@
       <c r="S104" s="4"/>
       <c r="T104" s="4"/>
       <c r="U104" s="4"/>
-    </row>
-    <row r="105" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H105" s="4"/>
-      <c r="I105" s="4"/>
-      <c r="J105" s="4"/>
+      <c r="V104" s="4"/>
+      <c r="W104" s="4"/>
+      <c r="X104" s="4"/>
+    </row>
+    <row r="105" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
       <c r="M105" s="4"/>
@@ -51482,11 +51888,11 @@
       <c r="S105" s="4"/>
       <c r="T105" s="4"/>
       <c r="U105" s="4"/>
-    </row>
-    <row r="106" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H106" s="4"/>
-      <c r="I106" s="4"/>
-      <c r="J106" s="4"/>
+      <c r="V105" s="4"/>
+      <c r="W105" s="4"/>
+      <c r="X105" s="4"/>
+    </row>
+    <row r="106" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K106" s="4"/>
       <c r="L106" s="4"/>
       <c r="M106" s="4"/>
@@ -51498,11 +51904,11 @@
       <c r="S106" s="4"/>
       <c r="T106" s="4"/>
       <c r="U106" s="4"/>
-    </row>
-    <row r="107" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H107" s="4"/>
-      <c r="I107" s="4"/>
-      <c r="J107" s="4"/>
+      <c r="V106" s="4"/>
+      <c r="W106" s="4"/>
+      <c r="X106" s="4"/>
+    </row>
+    <row r="107" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K107" s="4"/>
       <c r="L107" s="4"/>
       <c r="M107" s="4"/>
@@ -51514,11 +51920,11 @@
       <c r="S107" s="4"/>
       <c r="T107" s="4"/>
       <c r="U107" s="4"/>
-    </row>
-    <row r="108" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H108" s="4"/>
-      <c r="I108" s="4"/>
-      <c r="J108" s="4"/>
+      <c r="V107" s="4"/>
+      <c r="W107" s="4"/>
+      <c r="X107" s="4"/>
+    </row>
+    <row r="108" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K108" s="4"/>
       <c r="L108" s="4"/>
       <c r="M108" s="4"/>
@@ -51530,11 +51936,11 @@
       <c r="S108" s="4"/>
       <c r="T108" s="4"/>
       <c r="U108" s="4"/>
-    </row>
-    <row r="109" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H109" s="4"/>
-      <c r="I109" s="4"/>
-      <c r="J109" s="4"/>
+      <c r="V108" s="4"/>
+      <c r="W108" s="4"/>
+      <c r="X108" s="4"/>
+    </row>
+    <row r="109" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K109" s="4"/>
       <c r="L109" s="4"/>
       <c r="M109" s="4"/>
@@ -51546,11 +51952,11 @@
       <c r="S109" s="4"/>
       <c r="T109" s="4"/>
       <c r="U109" s="4"/>
-    </row>
-    <row r="110" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H110" s="4"/>
-      <c r="I110" s="4"/>
-      <c r="J110" s="4"/>
+      <c r="V109" s="4"/>
+      <c r="W109" s="4"/>
+      <c r="X109" s="4"/>
+    </row>
+    <row r="110" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
@@ -51562,11 +51968,11 @@
       <c r="S110" s="4"/>
       <c r="T110" s="4"/>
       <c r="U110" s="4"/>
-    </row>
-    <row r="111" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H111" s="4"/>
-      <c r="I111" s="4"/>
-      <c r="J111" s="4"/>
+      <c r="V110" s="4"/>
+      <c r="W110" s="4"/>
+      <c r="X110" s="4"/>
+    </row>
+    <row r="111" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K111" s="4"/>
       <c r="L111" s="4"/>
       <c r="M111" s="4"/>
@@ -51578,11 +51984,11 @@
       <c r="S111" s="4"/>
       <c r="T111" s="4"/>
       <c r="U111" s="4"/>
-    </row>
-    <row r="112" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H112" s="4"/>
-      <c r="I112" s="4"/>
-      <c r="J112" s="4"/>
+      <c r="V111" s="4"/>
+      <c r="W111" s="4"/>
+      <c r="X111" s="4"/>
+    </row>
+    <row r="112" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
@@ -51594,11 +52000,11 @@
       <c r="S112" s="4"/>
       <c r="T112" s="4"/>
       <c r="U112" s="4"/>
-    </row>
-    <row r="113" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H113" s="4"/>
-      <c r="I113" s="4"/>
-      <c r="J113" s="4"/>
+      <c r="V112" s="4"/>
+      <c r="W112" s="4"/>
+      <c r="X112" s="4"/>
+    </row>
+    <row r="113" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
       <c r="M113" s="4"/>
@@ -51610,11 +52016,11 @@
       <c r="S113" s="4"/>
       <c r="T113" s="4"/>
       <c r="U113" s="4"/>
-    </row>
-    <row r="114" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H114" s="4"/>
-      <c r="I114" s="4"/>
-      <c r="J114" s="4"/>
+      <c r="V113" s="4"/>
+      <c r="W113" s="4"/>
+      <c r="X113" s="4"/>
+    </row>
+    <row r="114" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
       <c r="M114" s="4"/>
@@ -51626,11 +52032,11 @@
       <c r="S114" s="4"/>
       <c r="T114" s="4"/>
       <c r="U114" s="4"/>
-    </row>
-    <row r="115" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H115" s="4"/>
-      <c r="I115" s="4"/>
-      <c r="J115" s="4"/>
+      <c r="V114" s="4"/>
+      <c r="W114" s="4"/>
+      <c r="X114" s="4"/>
+    </row>
+    <row r="115" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K115" s="4"/>
       <c r="L115" s="4"/>
       <c r="M115" s="4"/>
@@ -51642,11 +52048,11 @@
       <c r="S115" s="4"/>
       <c r="T115" s="4"/>
       <c r="U115" s="4"/>
-    </row>
-    <row r="116" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H116" s="4"/>
-      <c r="I116" s="4"/>
-      <c r="J116" s="4"/>
+      <c r="V115" s="4"/>
+      <c r="W115" s="4"/>
+      <c r="X115" s="4"/>
+    </row>
+    <row r="116" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
       <c r="M116" s="4"/>
@@ -51658,11 +52064,11 @@
       <c r="S116" s="4"/>
       <c r="T116" s="4"/>
       <c r="U116" s="4"/>
-    </row>
-    <row r="117" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H117" s="4"/>
-      <c r="I117" s="4"/>
-      <c r="J117" s="4"/>
+      <c r="V116" s="4"/>
+      <c r="W116" s="4"/>
+      <c r="X116" s="4"/>
+    </row>
+    <row r="117" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K117" s="4"/>
       <c r="L117" s="4"/>
       <c r="M117" s="4"/>
@@ -51674,11 +52080,11 @@
       <c r="S117" s="4"/>
       <c r="T117" s="4"/>
       <c r="U117" s="4"/>
-    </row>
-    <row r="118" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H118" s="4"/>
-      <c r="I118" s="4"/>
-      <c r="J118" s="4"/>
+      <c r="V117" s="4"/>
+      <c r="W117" s="4"/>
+      <c r="X117" s="4"/>
+    </row>
+    <row r="118" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K118" s="4"/>
       <c r="L118" s="4"/>
       <c r="M118" s="4"/>
@@ -51690,11 +52096,11 @@
       <c r="S118" s="4"/>
       <c r="T118" s="4"/>
       <c r="U118" s="4"/>
-    </row>
-    <row r="119" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H119" s="4"/>
-      <c r="I119" s="4"/>
-      <c r="J119" s="4"/>
+      <c r="V118" s="4"/>
+      <c r="W118" s="4"/>
+      <c r="X118" s="4"/>
+    </row>
+    <row r="119" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K119" s="4"/>
       <c r="L119" s="4"/>
       <c r="M119" s="4"/>
@@ -51706,11 +52112,11 @@
       <c r="S119" s="4"/>
       <c r="T119" s="4"/>
       <c r="U119" s="4"/>
-    </row>
-    <row r="120" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H120" s="4"/>
-      <c r="I120" s="4"/>
-      <c r="J120" s="4"/>
+      <c r="V119" s="4"/>
+      <c r="W119" s="4"/>
+      <c r="X119" s="4"/>
+    </row>
+    <row r="120" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K120" s="4"/>
       <c r="L120" s="4"/>
       <c r="M120" s="4"/>
@@ -51722,11 +52128,11 @@
       <c r="S120" s="4"/>
       <c r="T120" s="4"/>
       <c r="U120" s="4"/>
-    </row>
-    <row r="121" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H121" s="4"/>
-      <c r="I121" s="4"/>
-      <c r="J121" s="4"/>
+      <c r="V120" s="4"/>
+      <c r="W120" s="4"/>
+      <c r="X120" s="4"/>
+    </row>
+    <row r="121" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K121" s="4"/>
       <c r="L121" s="4"/>
       <c r="M121" s="4"/>
@@ -51738,11 +52144,11 @@
       <c r="S121" s="4"/>
       <c r="T121" s="4"/>
       <c r="U121" s="4"/>
-    </row>
-    <row r="122" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H122" s="4"/>
-      <c r="I122" s="4"/>
-      <c r="J122" s="4"/>
+      <c r="V121" s="4"/>
+      <c r="W121" s="4"/>
+      <c r="X121" s="4"/>
+    </row>
+    <row r="122" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K122" s="4"/>
       <c r="L122" s="4"/>
       <c r="M122" s="4"/>
@@ -51754,11 +52160,11 @@
       <c r="S122" s="4"/>
       <c r="T122" s="4"/>
       <c r="U122" s="4"/>
-    </row>
-    <row r="123" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H123" s="4"/>
-      <c r="I123" s="4"/>
-      <c r="J123" s="4"/>
+      <c r="V122" s="4"/>
+      <c r="W122" s="4"/>
+      <c r="X122" s="4"/>
+    </row>
+    <row r="123" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K123" s="4"/>
       <c r="L123" s="4"/>
       <c r="M123" s="4"/>
@@ -51770,11 +52176,11 @@
       <c r="S123" s="4"/>
       <c r="T123" s="4"/>
       <c r="U123" s="4"/>
-    </row>
-    <row r="124" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H124" s="4"/>
-      <c r="I124" s="4"/>
-      <c r="J124" s="4"/>
+      <c r="V123" s="4"/>
+      <c r="W123" s="4"/>
+      <c r="X123" s="4"/>
+    </row>
+    <row r="124" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
       <c r="M124" s="4"/>
@@ -51786,11 +52192,11 @@
       <c r="S124" s="4"/>
       <c r="T124" s="4"/>
       <c r="U124" s="4"/>
-    </row>
-    <row r="125" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H125" s="4"/>
-      <c r="I125" s="4"/>
-      <c r="J125" s="4"/>
+      <c r="V124" s="4"/>
+      <c r="W124" s="4"/>
+      <c r="X124" s="4"/>
+    </row>
+    <row r="125" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K125" s="4"/>
       <c r="L125" s="4"/>
       <c r="M125" s="4"/>
@@ -51802,11 +52208,11 @@
       <c r="S125" s="4"/>
       <c r="T125" s="4"/>
       <c r="U125" s="4"/>
-    </row>
-    <row r="126" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H126" s="4"/>
-      <c r="I126" s="4"/>
-      <c r="J126" s="4"/>
+      <c r="V125" s="4"/>
+      <c r="W125" s="4"/>
+      <c r="X125" s="4"/>
+    </row>
+    <row r="126" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K126" s="4"/>
       <c r="L126" s="4"/>
       <c r="M126" s="4"/>
@@ -51818,11 +52224,11 @@
       <c r="S126" s="4"/>
       <c r="T126" s="4"/>
       <c r="U126" s="4"/>
-    </row>
-    <row r="127" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H127" s="4"/>
-      <c r="I127" s="4"/>
-      <c r="J127" s="4"/>
+      <c r="V126" s="4"/>
+      <c r="W126" s="4"/>
+      <c r="X126" s="4"/>
+    </row>
+    <row r="127" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K127" s="4"/>
       <c r="L127" s="4"/>
       <c r="M127" s="4"/>
@@ -51834,11 +52240,11 @@
       <c r="S127" s="4"/>
       <c r="T127" s="4"/>
       <c r="U127" s="4"/>
-    </row>
-    <row r="128" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H128" s="4"/>
-      <c r="I128" s="4"/>
-      <c r="J128" s="4"/>
+      <c r="V127" s="4"/>
+      <c r="W127" s="4"/>
+      <c r="X127" s="4"/>
+    </row>
+    <row r="128" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K128" s="4"/>
       <c r="L128" s="4"/>
       <c r="M128" s="4"/>
@@ -51850,11 +52256,11 @@
       <c r="S128" s="4"/>
       <c r="T128" s="4"/>
       <c r="U128" s="4"/>
-    </row>
-    <row r="129" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H129" s="4"/>
-      <c r="I129" s="4"/>
-      <c r="J129" s="4"/>
+      <c r="V128" s="4"/>
+      <c r="W128" s="4"/>
+      <c r="X128" s="4"/>
+    </row>
+    <row r="129" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K129" s="4"/>
       <c r="L129" s="4"/>
       <c r="M129" s="4"/>
@@ -51866,11 +52272,11 @@
       <c r="S129" s="4"/>
       <c r="T129" s="4"/>
       <c r="U129" s="4"/>
-    </row>
-    <row r="130" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H130" s="4"/>
-      <c r="I130" s="4"/>
-      <c r="J130" s="4"/>
+      <c r="V129" s="4"/>
+      <c r="W129" s="4"/>
+      <c r="X129" s="4"/>
+    </row>
+    <row r="130" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K130" s="4"/>
       <c r="L130" s="4"/>
       <c r="M130" s="4"/>
@@ -51882,11 +52288,11 @@
       <c r="S130" s="4"/>
       <c r="T130" s="4"/>
       <c r="U130" s="4"/>
-    </row>
-    <row r="131" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H131" s="4"/>
-      <c r="I131" s="4"/>
-      <c r="J131" s="4"/>
+      <c r="V130" s="4"/>
+      <c r="W130" s="4"/>
+      <c r="X130" s="4"/>
+    </row>
+    <row r="131" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K131" s="4"/>
       <c r="L131" s="4"/>
       <c r="M131" s="4"/>
@@ -51898,11 +52304,11 @@
       <c r="S131" s="4"/>
       <c r="T131" s="4"/>
       <c r="U131" s="4"/>
-    </row>
-    <row r="132" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H132" s="4"/>
-      <c r="I132" s="4"/>
-      <c r="J132" s="4"/>
+      <c r="V131" s="4"/>
+      <c r="W131" s="4"/>
+      <c r="X131" s="4"/>
+    </row>
+    <row r="132" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K132" s="4"/>
       <c r="L132" s="4"/>
       <c r="M132" s="4"/>
@@ -51914,11 +52320,11 @@
       <c r="S132" s="4"/>
       <c r="T132" s="4"/>
       <c r="U132" s="4"/>
-    </row>
-    <row r="133" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H133" s="4"/>
-      <c r="I133" s="4"/>
-      <c r="J133" s="4"/>
+      <c r="V132" s="4"/>
+      <c r="W132" s="4"/>
+      <c r="X132" s="4"/>
+    </row>
+    <row r="133" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K133" s="4"/>
       <c r="L133" s="4"/>
       <c r="M133" s="4"/>
@@ -51930,11 +52336,11 @@
       <c r="S133" s="4"/>
       <c r="T133" s="4"/>
       <c r="U133" s="4"/>
-    </row>
-    <row r="134" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H134" s="4"/>
-      <c r="I134" s="4"/>
-      <c r="J134" s="4"/>
+      <c r="V133" s="4"/>
+      <c r="W133" s="4"/>
+      <c r="X133" s="4"/>
+    </row>
+    <row r="134" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K134" s="4"/>
       <c r="L134" s="4"/>
       <c r="M134" s="4"/>
@@ -51946,11 +52352,11 @@
       <c r="S134" s="4"/>
       <c r="T134" s="4"/>
       <c r="U134" s="4"/>
-    </row>
-    <row r="135" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H135" s="4"/>
-      <c r="I135" s="4"/>
-      <c r="J135" s="4"/>
+      <c r="V134" s="4"/>
+      <c r="W134" s="4"/>
+      <c r="X134" s="4"/>
+    </row>
+    <row r="135" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K135" s="4"/>
       <c r="L135" s="4"/>
       <c r="M135" s="4"/>
@@ -51962,11 +52368,11 @@
       <c r="S135" s="4"/>
       <c r="T135" s="4"/>
       <c r="U135" s="4"/>
-    </row>
-    <row r="136" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H136" s="4"/>
-      <c r="I136" s="4"/>
-      <c r="J136" s="4"/>
+      <c r="V135" s="4"/>
+      <c r="W135" s="4"/>
+      <c r="X135" s="4"/>
+    </row>
+    <row r="136" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K136" s="4"/>
       <c r="L136" s="4"/>
       <c r="M136" s="4"/>
@@ -51978,11 +52384,11 @@
       <c r="S136" s="4"/>
       <c r="T136" s="4"/>
       <c r="U136" s="4"/>
-    </row>
-    <row r="137" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H137" s="4"/>
-      <c r="I137" s="4"/>
-      <c r="J137" s="4"/>
+      <c r="V136" s="4"/>
+      <c r="W136" s="4"/>
+      <c r="X136" s="4"/>
+    </row>
+    <row r="137" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K137" s="4"/>
       <c r="L137" s="4"/>
       <c r="M137" s="4"/>
@@ -51994,11 +52400,11 @@
       <c r="S137" s="4"/>
       <c r="T137" s="4"/>
       <c r="U137" s="4"/>
-    </row>
-    <row r="138" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H138" s="4"/>
-      <c r="I138" s="4"/>
-      <c r="J138" s="4"/>
+      <c r="V137" s="4"/>
+      <c r="W137" s="4"/>
+      <c r="X137" s="4"/>
+    </row>
+    <row r="138" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K138" s="4"/>
       <c r="L138" s="4"/>
       <c r="M138" s="4"/>
@@ -52010,11 +52416,11 @@
       <c r="S138" s="4"/>
       <c r="T138" s="4"/>
       <c r="U138" s="4"/>
-    </row>
-    <row r="139" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H139" s="4"/>
-      <c r="I139" s="4"/>
-      <c r="J139" s="4"/>
+      <c r="V138" s="4"/>
+      <c r="W138" s="4"/>
+      <c r="X138" s="4"/>
+    </row>
+    <row r="139" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K139" s="4"/>
       <c r="L139" s="4"/>
       <c r="M139" s="4"/>
@@ -52026,11 +52432,11 @@
       <c r="S139" s="4"/>
       <c r="T139" s="4"/>
       <c r="U139" s="4"/>
-    </row>
-    <row r="140" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H140" s="4"/>
-      <c r="I140" s="4"/>
-      <c r="J140" s="4"/>
+      <c r="V139" s="4"/>
+      <c r="W139" s="4"/>
+      <c r="X139" s="4"/>
+    </row>
+    <row r="140" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K140" s="4"/>
       <c r="L140" s="4"/>
       <c r="M140" s="4"/>
@@ -52042,11 +52448,11 @@
       <c r="S140" s="4"/>
       <c r="T140" s="4"/>
       <c r="U140" s="4"/>
-    </row>
-    <row r="141" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H141" s="4"/>
-      <c r="I141" s="4"/>
-      <c r="J141" s="4"/>
+      <c r="V140" s="4"/>
+      <c r="W140" s="4"/>
+      <c r="X140" s="4"/>
+    </row>
+    <row r="141" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K141" s="4"/>
       <c r="L141" s="4"/>
       <c r="M141" s="4"/>
@@ -52058,11 +52464,11 @@
       <c r="S141" s="4"/>
       <c r="T141" s="4"/>
       <c r="U141" s="4"/>
-    </row>
-    <row r="142" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H142" s="4"/>
-      <c r="I142" s="4"/>
-      <c r="J142" s="4"/>
+      <c r="V141" s="4"/>
+      <c r="W141" s="4"/>
+      <c r="X141" s="4"/>
+    </row>
+    <row r="142" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K142" s="4"/>
       <c r="L142" s="4"/>
       <c r="M142" s="4"/>
@@ -52074,11 +52480,11 @@
       <c r="S142" s="4"/>
       <c r="T142" s="4"/>
       <c r="U142" s="4"/>
-    </row>
-    <row r="143" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H143" s="4"/>
-      <c r="I143" s="4"/>
-      <c r="J143" s="4"/>
+      <c r="V142" s="4"/>
+      <c r="W142" s="4"/>
+      <c r="X142" s="4"/>
+    </row>
+    <row r="143" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K143" s="4"/>
       <c r="L143" s="4"/>
       <c r="M143" s="4"/>
@@ -52090,11 +52496,11 @@
       <c r="S143" s="4"/>
       <c r="T143" s="4"/>
       <c r="U143" s="4"/>
-    </row>
-    <row r="144" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H144" s="4"/>
-      <c r="I144" s="4"/>
-      <c r="J144" s="4"/>
+      <c r="V143" s="4"/>
+      <c r="W143" s="4"/>
+      <c r="X143" s="4"/>
+    </row>
+    <row r="144" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K144" s="4"/>
       <c r="L144" s="4"/>
       <c r="M144" s="4"/>
@@ -52106,11 +52512,11 @@
       <c r="S144" s="4"/>
       <c r="T144" s="4"/>
       <c r="U144" s="4"/>
-    </row>
-    <row r="145" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H145" s="4"/>
-      <c r="I145" s="4"/>
-      <c r="J145" s="4"/>
+      <c r="V144" s="4"/>
+      <c r="W144" s="4"/>
+      <c r="X144" s="4"/>
+    </row>
+    <row r="145" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K145" s="4"/>
       <c r="L145" s="4"/>
       <c r="M145" s="4"/>
@@ -52122,11 +52528,11 @@
       <c r="S145" s="4"/>
       <c r="T145" s="4"/>
       <c r="U145" s="4"/>
-    </row>
-    <row r="146" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H146" s="4"/>
-      <c r="I146" s="4"/>
-      <c r="J146" s="4"/>
+      <c r="V145" s="4"/>
+      <c r="W145" s="4"/>
+      <c r="X145" s="4"/>
+    </row>
+    <row r="146" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K146" s="4"/>
       <c r="L146" s="4"/>
       <c r="M146" s="4"/>
@@ -52138,11 +52544,11 @@
       <c r="S146" s="4"/>
       <c r="T146" s="4"/>
       <c r="U146" s="4"/>
-    </row>
-    <row r="147" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H147" s="4"/>
-      <c r="I147" s="4"/>
-      <c r="J147" s="4"/>
+      <c r="V146" s="4"/>
+      <c r="W146" s="4"/>
+      <c r="X146" s="4"/>
+    </row>
+    <row r="147" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K147" s="4"/>
       <c r="L147" s="4"/>
       <c r="M147" s="4"/>
@@ -52154,11 +52560,11 @@
       <c r="S147" s="4"/>
       <c r="T147" s="4"/>
       <c r="U147" s="4"/>
-    </row>
-    <row r="148" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H148" s="4"/>
-      <c r="I148" s="4"/>
-      <c r="J148" s="4"/>
+      <c r="V147" s="4"/>
+      <c r="W147" s="4"/>
+      <c r="X147" s="4"/>
+    </row>
+    <row r="148" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K148" s="4"/>
       <c r="L148" s="4"/>
       <c r="M148" s="4"/>
@@ -52170,11 +52576,11 @@
       <c r="S148" s="4"/>
       <c r="T148" s="4"/>
       <c r="U148" s="4"/>
-    </row>
-    <row r="149" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H149" s="4"/>
-      <c r="I149" s="4"/>
-      <c r="J149" s="4"/>
+      <c r="V148" s="4"/>
+      <c r="W148" s="4"/>
+      <c r="X148" s="4"/>
+    </row>
+    <row r="149" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K149" s="4"/>
       <c r="L149" s="4"/>
       <c r="M149" s="4"/>
@@ -52186,11 +52592,11 @@
       <c r="S149" s="4"/>
       <c r="T149" s="4"/>
       <c r="U149" s="4"/>
-    </row>
-    <row r="150" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H150" s="4"/>
-      <c r="I150" s="4"/>
-      <c r="J150" s="4"/>
+      <c r="V149" s="4"/>
+      <c r="W149" s="4"/>
+      <c r="X149" s="4"/>
+    </row>
+    <row r="150" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K150" s="4"/>
       <c r="L150" s="4"/>
       <c r="M150" s="4"/>
@@ -52202,11 +52608,11 @@
       <c r="S150" s="4"/>
       <c r="T150" s="4"/>
       <c r="U150" s="4"/>
-    </row>
-    <row r="151" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H151" s="4"/>
-      <c r="I151" s="4"/>
-      <c r="J151" s="4"/>
+      <c r="V150" s="4"/>
+      <c r="W150" s="4"/>
+      <c r="X150" s="4"/>
+    </row>
+    <row r="151" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K151" s="4"/>
       <c r="L151" s="4"/>
       <c r="M151" s="4"/>
@@ -52218,11 +52624,11 @@
       <c r="S151" s="4"/>
       <c r="T151" s="4"/>
       <c r="U151" s="4"/>
-    </row>
-    <row r="152" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H152" s="4"/>
-      <c r="I152" s="4"/>
-      <c r="J152" s="4"/>
+      <c r="V151" s="4"/>
+      <c r="W151" s="4"/>
+      <c r="X151" s="4"/>
+    </row>
+    <row r="152" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K152" s="4"/>
       <c r="L152" s="4"/>
       <c r="M152" s="4"/>
@@ -52234,11 +52640,11 @@
       <c r="S152" s="4"/>
       <c r="T152" s="4"/>
       <c r="U152" s="4"/>
-    </row>
-    <row r="153" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H153" s="4"/>
-      <c r="I153" s="4"/>
-      <c r="J153" s="4"/>
+      <c r="V152" s="4"/>
+      <c r="W152" s="4"/>
+      <c r="X152" s="4"/>
+    </row>
+    <row r="153" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K153" s="4"/>
       <c r="L153" s="4"/>
       <c r="M153" s="4"/>
@@ -52250,11 +52656,11 @@
       <c r="S153" s="4"/>
       <c r="T153" s="4"/>
       <c r="U153" s="4"/>
-    </row>
-    <row r="154" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H154" s="4"/>
-      <c r="I154" s="4"/>
-      <c r="J154" s="4"/>
+      <c r="V153" s="4"/>
+      <c r="W153" s="4"/>
+      <c r="X153" s="4"/>
+    </row>
+    <row r="154" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K154" s="4"/>
       <c r="L154" s="4"/>
       <c r="M154" s="4"/>
@@ -52266,11 +52672,11 @@
       <c r="S154" s="4"/>
       <c r="T154" s="4"/>
       <c r="U154" s="4"/>
-    </row>
-    <row r="155" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H155" s="4"/>
-      <c r="I155" s="4"/>
-      <c r="J155" s="4"/>
+      <c r="V154" s="4"/>
+      <c r="W154" s="4"/>
+      <c r="X154" s="4"/>
+    </row>
+    <row r="155" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K155" s="4"/>
       <c r="L155" s="4"/>
       <c r="M155" s="4"/>
@@ -52282,11 +52688,11 @@
       <c r="S155" s="4"/>
       <c r="T155" s="4"/>
       <c r="U155" s="4"/>
-    </row>
-    <row r="156" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H156" s="4"/>
-      <c r="I156" s="4"/>
-      <c r="J156" s="4"/>
+      <c r="V155" s="4"/>
+      <c r="W155" s="4"/>
+      <c r="X155" s="4"/>
+    </row>
+    <row r="156" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K156" s="4"/>
       <c r="L156" s="4"/>
       <c r="M156" s="4"/>
@@ -52298,11 +52704,11 @@
       <c r="S156" s="4"/>
       <c r="T156" s="4"/>
       <c r="U156" s="4"/>
-    </row>
-    <row r="157" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H157" s="4"/>
-      <c r="I157" s="4"/>
-      <c r="J157" s="4"/>
+      <c r="V156" s="4"/>
+      <c r="W156" s="4"/>
+      <c r="X156" s="4"/>
+    </row>
+    <row r="157" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K157" s="4"/>
       <c r="L157" s="4"/>
       <c r="M157" s="4"/>
@@ -52314,11 +52720,11 @@
       <c r="S157" s="4"/>
       <c r="T157" s="4"/>
       <c r="U157" s="4"/>
-    </row>
-    <row r="158" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H158" s="4"/>
-      <c r="I158" s="4"/>
-      <c r="J158" s="4"/>
+      <c r="V157" s="4"/>
+      <c r="W157" s="4"/>
+      <c r="X157" s="4"/>
+    </row>
+    <row r="158" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K158" s="4"/>
       <c r="L158" s="4"/>
       <c r="M158" s="4"/>
@@ -52330,11 +52736,11 @@
       <c r="S158" s="4"/>
       <c r="T158" s="4"/>
       <c r="U158" s="4"/>
-    </row>
-    <row r="159" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H159" s="4"/>
-      <c r="I159" s="4"/>
-      <c r="J159" s="4"/>
+      <c r="V158" s="4"/>
+      <c r="W158" s="4"/>
+      <c r="X158" s="4"/>
+    </row>
+    <row r="159" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K159" s="4"/>
       <c r="L159" s="4"/>
       <c r="M159" s="4"/>
@@ -52346,11 +52752,11 @@
       <c r="S159" s="4"/>
       <c r="T159" s="4"/>
       <c r="U159" s="4"/>
-    </row>
-    <row r="160" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H160" s="4"/>
-      <c r="I160" s="4"/>
-      <c r="J160" s="4"/>
+      <c r="V159" s="4"/>
+      <c r="W159" s="4"/>
+      <c r="X159" s="4"/>
+    </row>
+    <row r="160" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K160" s="4"/>
       <c r="L160" s="4"/>
       <c r="M160" s="4"/>
@@ -52362,11 +52768,11 @@
       <c r="S160" s="4"/>
       <c r="T160" s="4"/>
       <c r="U160" s="4"/>
-    </row>
-    <row r="161" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H161" s="4"/>
-      <c r="I161" s="4"/>
-      <c r="J161" s="4"/>
+      <c r="V160" s="4"/>
+      <c r="W160" s="4"/>
+      <c r="X160" s="4"/>
+    </row>
+    <row r="161" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K161" s="4"/>
       <c r="L161" s="4"/>
       <c r="M161" s="4"/>
@@ -52378,11 +52784,11 @@
       <c r="S161" s="4"/>
       <c r="T161" s="4"/>
       <c r="U161" s="4"/>
-    </row>
-    <row r="162" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H162" s="4"/>
-      <c r="I162" s="4"/>
-      <c r="J162" s="4"/>
+      <c r="V161" s="4"/>
+      <c r="W161" s="4"/>
+      <c r="X161" s="4"/>
+    </row>
+    <row r="162" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K162" s="4"/>
       <c r="L162" s="4"/>
       <c r="M162" s="4"/>
@@ -52394,11 +52800,11 @@
       <c r="S162" s="4"/>
       <c r="T162" s="4"/>
       <c r="U162" s="4"/>
-    </row>
-    <row r="163" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H163" s="4"/>
-      <c r="I163" s="4"/>
-      <c r="J163" s="4"/>
+      <c r="V162" s="4"/>
+      <c r="W162" s="4"/>
+      <c r="X162" s="4"/>
+    </row>
+    <row r="163" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K163" s="4"/>
       <c r="L163" s="4"/>
       <c r="M163" s="4"/>
@@ -52410,11 +52816,11 @@
       <c r="S163" s="4"/>
       <c r="T163" s="4"/>
       <c r="U163" s="4"/>
-    </row>
-    <row r="164" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H164" s="4"/>
-      <c r="I164" s="4"/>
-      <c r="J164" s="4"/>
+      <c r="V163" s="4"/>
+      <c r="W163" s="4"/>
+      <c r="X163" s="4"/>
+    </row>
+    <row r="164" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K164" s="4"/>
       <c r="L164" s="4"/>
       <c r="M164" s="4"/>
@@ -52426,11 +52832,11 @@
       <c r="S164" s="4"/>
       <c r="T164" s="4"/>
       <c r="U164" s="4"/>
-    </row>
-    <row r="165" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H165" s="4"/>
-      <c r="I165" s="4"/>
-      <c r="J165" s="4"/>
+      <c r="V164" s="4"/>
+      <c r="W164" s="4"/>
+      <c r="X164" s="4"/>
+    </row>
+    <row r="165" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K165" s="4"/>
       <c r="L165" s="4"/>
       <c r="M165" s="4"/>
@@ -52442,11 +52848,11 @@
       <c r="S165" s="4"/>
       <c r="T165" s="4"/>
       <c r="U165" s="4"/>
-    </row>
-    <row r="166" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H166" s="4"/>
-      <c r="I166" s="4"/>
-      <c r="J166" s="4"/>
+      <c r="V165" s="4"/>
+      <c r="W165" s="4"/>
+      <c r="X165" s="4"/>
+    </row>
+    <row r="166" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K166" s="4"/>
       <c r="L166" s="4"/>
       <c r="M166" s="4"/>
@@ -52458,11 +52864,11 @@
       <c r="S166" s="4"/>
       <c r="T166" s="4"/>
       <c r="U166" s="4"/>
-    </row>
-    <row r="167" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H167" s="4"/>
-      <c r="I167" s="4"/>
-      <c r="J167" s="4"/>
+      <c r="V166" s="4"/>
+      <c r="W166" s="4"/>
+      <c r="X166" s="4"/>
+    </row>
+    <row r="167" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K167" s="4"/>
       <c r="L167" s="4"/>
       <c r="M167" s="4"/>
@@ -52474,11 +52880,11 @@
       <c r="S167" s="4"/>
       <c r="T167" s="4"/>
       <c r="U167" s="4"/>
-    </row>
-    <row r="168" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H168" s="4"/>
-      <c r="I168" s="4"/>
-      <c r="J168" s="4"/>
+      <c r="V167" s="4"/>
+      <c r="W167" s="4"/>
+      <c r="X167" s="4"/>
+    </row>
+    <row r="168" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K168" s="4"/>
       <c r="L168" s="4"/>
       <c r="M168" s="4"/>
@@ -52490,11 +52896,11 @@
       <c r="S168" s="4"/>
       <c r="T168" s="4"/>
       <c r="U168" s="4"/>
-    </row>
-    <row r="169" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H169" s="4"/>
-      <c r="I169" s="4"/>
-      <c r="J169" s="4"/>
+      <c r="V168" s="4"/>
+      <c r="W168" s="4"/>
+      <c r="X168" s="4"/>
+    </row>
+    <row r="169" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K169" s="4"/>
       <c r="L169" s="4"/>
       <c r="M169" s="4"/>
@@ -52506,11 +52912,11 @@
       <c r="S169" s="4"/>
       <c r="T169" s="4"/>
       <c r="U169" s="4"/>
-    </row>
-    <row r="170" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H170" s="4"/>
-      <c r="I170" s="4"/>
-      <c r="J170" s="4"/>
+      <c r="V169" s="4"/>
+      <c r="W169" s="4"/>
+      <c r="X169" s="4"/>
+    </row>
+    <row r="170" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K170" s="4"/>
       <c r="L170" s="4"/>
       <c r="M170" s="4"/>
@@ -52522,11 +52928,11 @@
       <c r="S170" s="4"/>
       <c r="T170" s="4"/>
       <c r="U170" s="4"/>
-    </row>
-    <row r="171" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H171" s="4"/>
-      <c r="I171" s="4"/>
-      <c r="J171" s="4"/>
+      <c r="V170" s="4"/>
+      <c r="W170" s="4"/>
+      <c r="X170" s="4"/>
+    </row>
+    <row r="171" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K171" s="4"/>
       <c r="L171" s="4"/>
       <c r="M171" s="4"/>
@@ -52538,11 +52944,11 @@
       <c r="S171" s="4"/>
       <c r="T171" s="4"/>
       <c r="U171" s="4"/>
-    </row>
-    <row r="172" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H172" s="4"/>
-      <c r="I172" s="4"/>
-      <c r="J172" s="4"/>
+      <c r="V171" s="4"/>
+      <c r="W171" s="4"/>
+      <c r="X171" s="4"/>
+    </row>
+    <row r="172" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K172" s="4"/>
       <c r="L172" s="4"/>
       <c r="M172" s="4"/>
@@ -52554,11 +52960,11 @@
       <c r="S172" s="4"/>
       <c r="T172" s="4"/>
       <c r="U172" s="4"/>
-    </row>
-    <row r="173" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H173" s="4"/>
-      <c r="I173" s="4"/>
-      <c r="J173" s="4"/>
+      <c r="V172" s="4"/>
+      <c r="W172" s="4"/>
+      <c r="X172" s="4"/>
+    </row>
+    <row r="173" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K173" s="4"/>
       <c r="L173" s="4"/>
       <c r="M173" s="4"/>
@@ -52570,11 +52976,11 @@
       <c r="S173" s="4"/>
       <c r="T173" s="4"/>
       <c r="U173" s="4"/>
-    </row>
-    <row r="174" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H174" s="4"/>
-      <c r="I174" s="4"/>
-      <c r="J174" s="4"/>
+      <c r="V173" s="4"/>
+      <c r="W173" s="4"/>
+      <c r="X173" s="4"/>
+    </row>
+    <row r="174" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K174" s="4"/>
       <c r="L174" s="4"/>
       <c r="M174" s="4"/>
@@ -52586,11 +52992,11 @@
       <c r="S174" s="4"/>
       <c r="T174" s="4"/>
       <c r="U174" s="4"/>
-    </row>
-    <row r="175" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H175" s="4"/>
-      <c r="I175" s="4"/>
-      <c r="J175" s="4"/>
+      <c r="V174" s="4"/>
+      <c r="W174" s="4"/>
+      <c r="X174" s="4"/>
+    </row>
+    <row r="175" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K175" s="4"/>
       <c r="L175" s="4"/>
       <c r="M175" s="4"/>
@@ -52602,11 +53008,11 @@
       <c r="S175" s="4"/>
       <c r="T175" s="4"/>
       <c r="U175" s="4"/>
-    </row>
-    <row r="176" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H176" s="4"/>
-      <c r="I176" s="4"/>
-      <c r="J176" s="4"/>
+      <c r="V175" s="4"/>
+      <c r="W175" s="4"/>
+      <c r="X175" s="4"/>
+    </row>
+    <row r="176" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K176" s="4"/>
       <c r="L176" s="4"/>
       <c r="M176" s="4"/>
@@ -52618,11 +53024,11 @@
       <c r="S176" s="4"/>
       <c r="T176" s="4"/>
       <c r="U176" s="4"/>
-    </row>
-    <row r="177" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H177" s="4"/>
-      <c r="I177" s="4"/>
-      <c r="J177" s="4"/>
+      <c r="V176" s="4"/>
+      <c r="W176" s="4"/>
+      <c r="X176" s="4"/>
+    </row>
+    <row r="177" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K177" s="4"/>
       <c r="L177" s="4"/>
       <c r="M177" s="4"/>
@@ -52634,11 +53040,11 @@
       <c r="S177" s="4"/>
       <c r="T177" s="4"/>
       <c r="U177" s="4"/>
-    </row>
-    <row r="178" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H178" s="4"/>
-      <c r="I178" s="4"/>
-      <c r="J178" s="4"/>
+      <c r="V177" s="4"/>
+      <c r="W177" s="4"/>
+      <c r="X177" s="4"/>
+    </row>
+    <row r="178" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K178" s="4"/>
       <c r="L178" s="4"/>
       <c r="M178" s="4"/>
@@ -52650,11 +53056,11 @@
       <c r="S178" s="4"/>
       <c r="T178" s="4"/>
       <c r="U178" s="4"/>
-    </row>
-    <row r="179" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H179" s="4"/>
-      <c r="I179" s="4"/>
-      <c r="J179" s="4"/>
+      <c r="V178" s="4"/>
+      <c r="W178" s="4"/>
+      <c r="X178" s="4"/>
+    </row>
+    <row r="179" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K179" s="4"/>
       <c r="L179" s="4"/>
       <c r="M179" s="4"/>
@@ -52666,11 +53072,11 @@
       <c r="S179" s="4"/>
       <c r="T179" s="4"/>
       <c r="U179" s="4"/>
-    </row>
-    <row r="180" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H180" s="4"/>
-      <c r="I180" s="4"/>
-      <c r="J180" s="4"/>
+      <c r="V179" s="4"/>
+      <c r="W179" s="4"/>
+      <c r="X179" s="4"/>
+    </row>
+    <row r="180" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K180" s="4"/>
       <c r="L180" s="4"/>
       <c r="M180" s="4"/>
@@ -52682,11 +53088,11 @@
       <c r="S180" s="4"/>
       <c r="T180" s="4"/>
       <c r="U180" s="4"/>
-    </row>
-    <row r="181" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H181" s="4"/>
-      <c r="I181" s="4"/>
-      <c r="J181" s="4"/>
+      <c r="V180" s="4"/>
+      <c r="W180" s="4"/>
+      <c r="X180" s="4"/>
+    </row>
+    <row r="181" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K181" s="4"/>
       <c r="L181" s="4"/>
       <c r="M181" s="4"/>
@@ -52698,11 +53104,11 @@
       <c r="S181" s="4"/>
       <c r="T181" s="4"/>
       <c r="U181" s="4"/>
-    </row>
-    <row r="182" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H182" s="4"/>
-      <c r="I182" s="4"/>
-      <c r="J182" s="4"/>
+      <c r="V181" s="4"/>
+      <c r="W181" s="4"/>
+      <c r="X181" s="4"/>
+    </row>
+    <row r="182" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K182" s="4"/>
       <c r="L182" s="4"/>
       <c r="M182" s="4"/>
@@ -52714,11 +53120,11 @@
       <c r="S182" s="4"/>
       <c r="T182" s="4"/>
       <c r="U182" s="4"/>
-    </row>
-    <row r="183" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H183" s="4"/>
-      <c r="I183" s="4"/>
-      <c r="J183" s="4"/>
+      <c r="V182" s="4"/>
+      <c r="W182" s="4"/>
+      <c r="X182" s="4"/>
+    </row>
+    <row r="183" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K183" s="4"/>
       <c r="L183" s="4"/>
       <c r="M183" s="4"/>
@@ -52730,10 +53136,20 @@
       <c r="S183" s="4"/>
       <c r="T183" s="4"/>
       <c r="U183" s="4"/>
+      <c r="V183" s="4"/>
+      <c r="W183" s="4"/>
+      <c r="X183" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId2"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -68030,7 +68446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16100528-3E2A-457F-8444-BF871AD1C65A}">
   <dimension ref="A1:P335"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
